--- a/data/hotels_by_city/Dallas/Dallas_shard_759.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_759.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1588 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r555589951-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>55736</t>
+  </si>
+  <si>
+    <t>1526339</t>
+  </si>
+  <si>
+    <t>555589951</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Just average but good location</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards customer who frequents Marriott hotels regularly, this hotel was average to sub par. Outside of the location to a venue we were attending, we were very disappointed. Upon entering our room, we found our heat to be "stuck" and locked. The room was extremely hot. When trying to call the front desk to let them know, we found our phone didn't work. Upon calling on our cell phone and making a trip downstairs, the front desk "unlocked" our air from downstairs. The elevators are also located next door to the hotel rooms, which creates traffic at all times. These are fairly small rooms, tiny bathrooms, with full kitchens. If you need to cook your own food and you have a party of one or two, this could work for you. There is a full size refrigerator as well. Upon entering the hotel, they make you sign a contract that you will not have a party in your room. This should have been an indication. There is a free breakfast in the morning-- simple, usual for a free breakfast (yogurt, waffles, cereal, and some sort of sausage). The indoor pool was closed on a Saturday too. If you travel with more than two or unless your children are small, like ours, I would recommend upgrading to the full suite. Overall, the location was good and the staff was attentive to the problems. Not bad but not great.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Shirley S, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards customer who frequents Marriott hotels regularly, this hotel was average to sub par. Outside of the location to a venue we were attending, we were very disappointed. Upon entering our room, we found our heat to be "stuck" and locked. The room was extremely hot. When trying to call the front desk to let them know, we found our phone didn't work. Upon calling on our cell phone and making a trip downstairs, the front desk "unlocked" our air from downstairs. The elevators are also located next door to the hotel rooms, which creates traffic at all times. These are fairly small rooms, tiny bathrooms, with full kitchens. If you need to cook your own food and you have a party of one or two, this could work for you. There is a full size refrigerator as well. Upon entering the hotel, they make you sign a contract that you will not have a party in your room. This should have been an indication. There is a free breakfast in the morning-- simple, usual for a free breakfast (yogurt, waffles, cereal, and some sort of sausage). The indoor pool was closed on a Saturday too. If you travel with more than two or unless your children are small, like ours, I would recommend upgrading to the full suite. Overall, the location was good and the staff was attentive to the problems. Not bad but not great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r540761325-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>540761325</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Solid option for families</t>
+  </si>
+  <si>
+    <t>Booked a 2-bedroom suite. Since this is a towneplace, that means it has 2 separate (ie real) bedrooms, and a common area, kitchen, and bathroom. This allowed us (2 adults, a toddler, and an infant) to all be comfortable while we were in town. Breakfast was hot and good. Rooms were clean and beds were a fine. I'd definitely recommend.Only negatives of our stay were check-in and utensils in the room.- I had been assured using chat in the marriott app that my check-in time would be honored, only to arrive well after that check-in with 2 very tired children and a room that still wasn't ready. There seemed to only be one check-in position which didn't help things.- My room had steak knives, pots, pans, and everything else you'd need for a meal... but no forks, spoons, or butter knives. I'm assuming they were taken by a previous guest, but when I asked the staff about them one night, I was told I may have to wait til the next morning when the kitchen was unlocked before I might get silverware. Staff was fortunately able to find some plasticware in the back office, but that should definitely not be an issue for an extended-stay property.Noise: Nothing unique to this hotel, but since it's in Texas and pretty new, the walls are paper-thin.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Shirley S, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Booked a 2-bedroom suite. Since this is a towneplace, that means it has 2 separate (ie real) bedrooms, and a common area, kitchen, and bathroom. This allowed us (2 adults, a toddler, and an infant) to all be comfortable while we were in town. Breakfast was hot and good. Rooms were clean and beds were a fine. I'd definitely recommend.Only negatives of our stay were check-in and utensils in the room.- I had been assured using chat in the marriott app that my check-in time would be honored, only to arrive well after that check-in with 2 very tired children and a room that still wasn't ready. There seemed to only be one check-in position which didn't help things.- My room had steak knives, pots, pans, and everything else you'd need for a meal... but no forks, spoons, or butter knives. I'm assuming they were taken by a previous guest, but when I asked the staff about them one night, I was told I may have to wait til the next morning when the kitchen was unlocked before I might get silverware. Staff was fortunately able to find some plasticware in the back office, but that should definitely not be an issue for an extended-stay property.Noise: Nothing unique to this hotel, but since it's in Texas and pretty new, the walls are paper-thin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r538082898-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>538082898</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Thank you for all you do.  My family always feels safe and welcome. I am truly grateful to call this place home .   The staff is very polite and friendly.  The room helper are awesome.  The kithchen staff and greeters makes sure there's always hot coffee when you need it    Keep up the good work. MoreShow less</t>
+  </si>
+  <si>
+    <t>Thank you for all you do.  My family always feels safe and welcome. I am truly grateful to call this place home .   The staff is very polite and friendly.  The room helper are awesome.  The kithchen staff and greeters makes sure there's always hot coffee when you need it    Keep up the good work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r506526241-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>506526241</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>I stayed there July 19th while attending an event at the Bob Knight Field House.  Very convenient. Easy access from freeway.  Rooms were clean and quiet. Perfect location if your attending tournaments held at the BKFH.   I'll remember to stay here again for the next tournament. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Shirley S, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>I stayed there July 19th while attending an event at the Bob Knight Field House.  Very convenient. Easy access from freeway.  Rooms were clean and quiet. Perfect location if your attending tournaments held at the BKFH.   I'll remember to stay here again for the next tournament. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r504791843-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>504791843</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family vacation </t>
+  </si>
+  <si>
+    <t>The hotel needs a little renovations.  The room we stayed in had the threshold coming off between the bedroom and the bathroom.  Also the floor in the bathroom was coming apart also.  Other than that we had a great time there.  The young lafy in the evening with blond hair was very friendly.  She talked to both my daughters and made us feel welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel needs a little renovations.  The room we stayed in had the threshold coming off between the bedroom and the bathroom.  Also the floor in the bathroom was coming apart also.  Other than that we had a great time there.  The young lafy in the evening with blond hair was very friendly.  She talked to both my daughters and made us feel welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r490767372-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>490767372</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Disappointment from the beginning to the end.</t>
+  </si>
+  <si>
+    <t>In February, we made a reservation, and received a confirmation, for a two bedroom, handicapped accessible suite.  Imagine our disbelief when we arrived and we were given keys to a two bedroom suite.  When questioned the handicapped accessibility of the suite were told 1) we didn't  request handicapped accessible, 2) that they only had one handicapped accessible, two bed room suite and that it had been occupied for two months, and 3) we really didn't need a handicapped accessible room.  We 1) showed the email confirmation for the handicapped accessible suite, 2) asked why if the room had been occupied for two months why we weren't notified to make other arrangements, and 3) informed them that yes, we indeed needed a handicapped accessible room for the third member of our party who was waiting in the car.After some awkward silence, they offered to call around to other Marriott properties and try to find us an available room.  We checked Trip Advisor for reviews of the properties they offered.  The two properties had terrible reviews that stated the locations were unsafe.  The third hotel was not a place we would have chosen, but it would suffice. For all of our inconveniences, we were told that 20,000 points would be added to our Marriott Rewards account.   These points still have not been added to our account.  I seriously doubt that they will ever be added to our account.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Shirley S, Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>In February, we made a reservation, and received a confirmation, for a two bedroom, handicapped accessible suite.  Imagine our disbelief when we arrived and we were given keys to a two bedroom suite.  When questioned the handicapped accessibility of the suite were told 1) we didn't  request handicapped accessible, 2) that they only had one handicapped accessible, two bed room suite and that it had been occupied for two months, and 3) we really didn't need a handicapped accessible room.  We 1) showed the email confirmation for the handicapped accessible suite, 2) asked why if the room had been occupied for two months why we weren't notified to make other arrangements, and 3) informed them that yes, we indeed needed a handicapped accessible room for the third member of our party who was waiting in the car.After some awkward silence, they offered to call around to other Marriott properties and try to find us an available room.  We checked Trip Advisor for reviews of the properties they offered.  The two properties had terrible reviews that stated the locations were unsafe.  The third hotel was not a place we would have chosen, but it would suffice. For all of our inconveniences, we were told that 20,000 points would be added to our Marriott Rewards account.   These points still have not been added to our account.  I seriously doubt that they will ever be added to our account.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r471091713-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>471091713</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Horrible Customer service</t>
+  </si>
+  <si>
+    <t>this has been the worse experience visiting a marriott. the one and only issue i had was with the alleged asst gm anna! rude is an understatement. attitude is an understatement. i had yvette who was nice calm me down because i was so upset with the way anna approaches and speaks to people  that are paying customers. ho is this even a marriott property?? they dont even deserve the brand name with someone working who doesnt display adequate customer service and substance. i would never recommend this hotel to any one. never!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Shirley S, Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>this has been the worse experience visiting a marriott. the one and only issue i had was with the alleged asst gm anna! rude is an understatement. attitude is an understatement. i had yvette who was nice calm me down because i was so upset with the way anna approaches and speaks to people  that are paying customers. ho is this even a marriott property?? they dont even deserve the brand name with someone working who doesnt display adequate customer service and substance. i would never recommend this hotel to any one. never!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r469910058-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>469910058</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Great family place</t>
+  </si>
+  <si>
+    <t>We stayed in a corner suite with a family of 7 and couldn't have been more comfortable.  The suite was lovely and clean, very nicely laid out.  The hotel itself is beautiful and feels very secure and quiet.  There is a covered patio out front with a nice bbq grill.  Parking is ample, breakfast was very good - loved the croissants!  Located in a nice area and close to restaurants, gas and highways.  We will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shirley S, Front Office Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>We stayed in a corner suite with a family of 7 and couldn't have been more comfortable.  The suite was lovely and clean, very nicely laid out.  The hotel itself is beautiful and feels very secure and quiet.  There is a covered patio out front with a nice bbq grill.  Parking is ample, breakfast was very good - loved the croissants!  Located in a nice area and close to restaurants, gas and highways.  We will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r469743614-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>469743614</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Best stay ever!</t>
+  </si>
+  <si>
+    <t>I LOVE THIS HOTEL!! The staff is very friendly and very helpful! My room was very clean and they keep fresh coffee out 24/7 which was great. I like how the staff actually tried to get to know me which made my experience very personal. Yall are amazing! I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I LOVE THIS HOTEL!! The staff is very friendly and very helpful! My room was very clean and they keep fresh coffee out 24/7 which was great. I like how the staff actually tried to get to know me which made my experience very personal. Yall are amazing! I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r464907135-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>464907135</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>BAD housekeeping hours</t>
+  </si>
+  <si>
+    <t>I am a business traveler and have requested repeatedly upon check in to have my room done by a specific time before I get back to the room for the day. Rarely does that happen. And worst than that, they insist on vacuuming hallways outside of room at 7 and 8 pm at night.......MoreShow less</t>
+  </si>
+  <si>
+    <t>Shirley S, Front Office Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>I am a business traveler and have requested repeatedly upon check in to have my room done by a specific time before I get back to the room for the day. Rarely does that happen. And worst than that, they insist on vacuuming hallways outside of room at 7 and 8 pm at night.......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r463915609-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>463915609</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Love the people and service</t>
+  </si>
+  <si>
+    <t>I love Mrs . Teresa, Mrs Anna ,Mrs Shirley, Mrs Jovita  for making me feel welcome during my stay.  The kitchen staff was great too. Always positive  even on busy weekend.  The food was great especially the Texas waffle.  Thank you  Desoto TownePlace Suites. Room 213 /Cokes family MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I love Mrs . Teresa, Mrs Anna ,Mrs Shirley, Mrs Jovita  for making me feel welcome during my stay.  The kitchen staff was great too. Always positive  even on busy weekend.  The food was great especially the Texas waffle.  Thank you  Desoto TownePlace Suites. Room 213 /Cokes family More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r461041807-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>461041807</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>All good</t>
+  </si>
+  <si>
+    <t>Stayed here one night on a business trip. Room was comfortable, staff was friendly, and free breakfast was adequate.  Everything was clean, neat, and adequately modern.  I'd stay here again.  Recommendation for the hotel: add an electric car charging station.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Stayed here one night on a business trip. Room was comfortable, staff was friendly, and free breakfast was adequate.  Everything was clean, neat, and adequately modern.  I'd stay here again.  Recommendation for the hotel: add an electric car charging station.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r435020653-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>435020653</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel...horrible staff</t>
+  </si>
+  <si>
+    <t>The hotel is nice.  The staff is horrible! When I first got there, I was told there was a no party policy...ok cool! I wasn't throwing a party! I walked to my room with my 4 daughters  (6 people is allowed in a 2 bedroom suite) 10 minutes later,  someone from the front desk  knocked on my door accusing me of throwing a party. WELL I had only been there for 10 minutes. HOUSEKEEPING saw me bringing groceries up to my room (my room was equipped with a full kitchen)and went to complain on me. Then I pulled out the couch bed in the living room. The couch " appeared" to be broken. So I immediately called the front desk and reported it. Anthony came up to help with the couch.  He said apparently the previous guest broke the couch and that he was going to write up a report. Well, Once he got back to the front desk he called me and said if the supervisor don't have any knowledge of the couch being broken, then the hotel was going to charge me for the broken couch!!  And the worst part of it all is when the front desk lady (she's black) came to my room she states " everytime  our people  (black people) check in, they (Mexican) send me up here to confront them" This hotel WILL NEVER get my business again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Shirley S, Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is nice.  The staff is horrible! When I first got there, I was told there was a no party policy...ok cool! I wasn't throwing a party! I walked to my room with my 4 daughters  (6 people is allowed in a 2 bedroom suite) 10 minutes later,  someone from the front desk  knocked on my door accusing me of throwing a party. WELL I had only been there for 10 minutes. HOUSEKEEPING saw me bringing groceries up to my room (my room was equipped with a full kitchen)and went to complain on me. Then I pulled out the couch bed in the living room. The couch " appeared" to be broken. So I immediately called the front desk and reported it. Anthony came up to help with the couch.  He said apparently the previous guest broke the couch and that he was going to write up a report. Well, Once he got back to the front desk he called me and said if the supervisor don't have any knowledge of the couch being broken, then the hotel was going to charge me for the broken couch!!  And the worst part of it all is when the front desk lady (she's black) came to my room she states " everytime  our people  (black people) check in, they (Mexican) send me up here to confront them" This hotel WILL NEVER get my business again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r432874620-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>432874620</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Rough hotel not for short stays</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for one night only. Pros: good storage, lots of hot water, nice little kitchenette, convenient access to I35W. Cons: hotel rooms are worn, fixtures show rust or worse, paint could seriously use some refreshing, walls are thin so definitely take a room on the top floor so you don't here your neighbor above walking all night, pool noises echo down the first floor halls so avoid that level too. Checkin was slow and they didn't honor our room type selected. I wouldn't stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Shirley S, Front Office Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for one night only. Pros: good storage, lots of hot water, nice little kitchenette, convenient access to I35W. Cons: hotel rooms are worn, fixtures show rust or worse, paint could seriously use some refreshing, walls are thin so definitely take a room on the top floor so you don't here your neighbor above walking all night, pool noises echo down the first floor halls so avoid that level too. Checkin was slow and they didn't honor our room type selected. I wouldn't stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r432673940-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>432673940</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Brenda the breakfast lady</t>
+  </si>
+  <si>
+    <t>Overall this hotel is pretty nice. The best part is Brenda the breakfast lady. She was very helpful and went out of her way to help the guest. I heard her offer to make a girls oatmeal for her. Even though she was not feeling her best today she went our of her way to make everyone comfortable and happy. Thanks, BrendaMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Overall this hotel is pretty nice. The best part is Brenda the breakfast lady. She was very helpful and went out of her way to help the guest. I heard her offer to make a girls oatmeal for her. Even though she was not feeling her best today she went our of her way to make everyone comfortable and happy. Thanks, BrendaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r396896491-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>396896491</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Not bad for a 1 day business trip</t>
+  </si>
+  <si>
+    <t>Clean Hotel &amp; polite staff, however, the property's age is showing now. Do not expect anything out of the ordinary. I have stayed at other Towneplace hotels which were "renovated" that had a much more pleasant feel to them. This hotel does the job but I would not recommend to stay here with family unless you are really on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shirley S, Front Office Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2016</t>
+  </si>
+  <si>
+    <t>Clean Hotel &amp; polite staff, however, the property's age is showing now. Do not expect anything out of the ordinary. I have stayed at other Towneplace hotels which were "renovated" that had a much more pleasant feel to them. This hotel does the job but I would not recommend to stay here with family unless you are really on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r393377030-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>393377030</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Meets your needs...</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights family of 4 and the hotel met our needs. Its always a plus to have a full size refrigerator and microwave which is great for storing a few items or warming. The rooms were clean and up to expectations for price. The set up is a bit awkward as you enter with the kitchenette counter inches from where the door opens and the bathroom door is about 3ft from the second bed. Other than that the hotel meets the requirements you need for a family and worked out just well. We stayed in room 313 and not problems during the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights family of 4 and the hotel met our needs. Its always a plus to have a full size refrigerator and microwave which is great for storing a few items or warming. The rooms were clean and up to expectations for price. The set up is a bit awkward as you enter with the kitchenette counter inches from where the door opens and the bathroom door is about 3ft from the second bed. Other than that the hotel meets the requirements you need for a family and worked out just well. We stayed in room 313 and not problems during the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r391564461-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>391564461</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Great location, Fantastic Staff, Plan an Event</t>
+  </si>
+  <si>
+    <t>We held a small conference and the rooms were great, the staff was awesome and the location was terrific. You can eat at many places - different types, price ranges, etc. within a few miles of the hotel. The rooms were reasonably priced and the staff was fabulous. 30 minutes south of the airport means that traffic here is a lot better than Dallas center. You are missing it if you don't try something here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We held a small conference and the rooms were great, the staff was awesome and the location was terrific. You can eat at many places - different types, price ranges, etc. within a few miles of the hotel. The rooms were reasonably priced and the staff was fabulous. 30 minutes south of the airport means that traffic here is a lot better than Dallas center. You are missing it if you don't try something here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r370998096-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>370998096</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>Our overall experience was "Excellent" in the service provided for us by Shirley Spann, Adriean Smith, Darnell, Roslaind and Marvin. We were in Dallas for a wedding and thanks to our daughter she told us about this place and we agree everything, the room, the breakfast, place was clean in every aspect of the hotel.  I will let my family and friends know where to stay when they are in Dallas.  We were greeted with a warm welcome, gave us a review of the area, loved the extra's like the ice cream at night when we came is was just awesome.  Thanks to all of the staff just like family.  Linda and Neil from Myrtle Beach, SC stayed April 14th and left on the 17th. (great prices too)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Shirley S, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Our overall experience was "Excellent" in the service provided for us by Shirley Spann, Adriean Smith, Darnell, Roslaind and Marvin. We were in Dallas for a wedding and thanks to our daughter she told us about this place and we agree everything, the room, the breakfast, place was clean in every aspect of the hotel.  I will let my family and friends know where to stay when they are in Dallas.  We were greeted with a warm welcome, gave us a review of the area, loved the extra's like the ice cream at night when we came is was just awesome.  Thanks to all of the staff just like family.  Linda and Neil from Myrtle Beach, SC stayed April 14th and left on the 17th. (great prices too)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r367564566-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>367564566</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Very Nice place to stay</t>
+  </si>
+  <si>
+    <t>Staff is extremely friendly and this is a great place to stay when you visit the South Dallas area. This hotel is close to the freeway and plenty of things and restaurants in the area. Very convienent!MoreShow less</t>
+  </si>
+  <si>
+    <t>Shirley S, Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Staff is extremely friendly and this is a great place to stay when you visit the South Dallas area. This hotel is close to the freeway and plenty of things and restaurants in the area. Very convienent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r354557527-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>354557527</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Never disappointed!!</t>
+  </si>
+  <si>
+    <t>Came with two others for girls trip from Kansas City. We are staying in a two bedroom suite that includes 1 bathroom and a full kitchen. Each bedroom has a TV and a custom closet system that is very nice for organizing your belongings on longer stays. The staff has been very accommodating and nice. There's a pool but no hot tub and a small workout area. Lots of shopping and restaurants in the area. Marriott never disappoints!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Came with two others for girls trip from Kansas City. We are staying in a two bedroom suite that includes 1 bathroom and a full kitchen. Each bedroom has a TV and a custom closet system that is very nice for organizing your belongings on longer stays. The staff has been very accommodating and nice. There's a pool but no hot tub and a small workout area. Lots of shopping and restaurants in the area. Marriott never disappoints!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r350781829-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>350781829</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas Getaway </t>
+  </si>
+  <si>
+    <t>Poorly maintained. Clutter in the hallways. Floors in the bathroom and kitchen showed impact of severe water damage. On the last day, the HVAC went crazy and pushed out all kind of heat. Had to turn it off and leave the window open (40° weather) to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Poorly maintained. Clutter in the hallways. Floors in the bathroom and kitchen showed impact of severe water damage. On the last day, the HVAC went crazy and pushed out all kind of heat. Had to turn it off and leave the window open (40° weather) to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r348485343-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>348485343</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Front Staff Most Helpful--especially Adreana and Marvin</t>
+  </si>
+  <si>
+    <t>This hotel is easy to get to from the Interstate and near great shopping and dining. While I may not be spelling her name correctly, Adreana at the front desk was awesome! She went out of her way to make our stay pleasant. I would stay here again just for her!Also, Marvin helped with a television issue quickly and professionally. The staff we dealt with was very helpful (except for a new girl who didn't seem to know a lot yet) and kind. Sadly, too many hotels are losing helpful and cheerful front desk staff. I travel a lot so when I can find good front desk staff, I tend to return!The pool area isn't the cleanest but the rooms and work out area are nice and feel pretty clean.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel is easy to get to from the Interstate and near great shopping and dining. While I may not be spelling her name correctly, Adreana at the front desk was awesome! She went out of her way to make our stay pleasant. I would stay here again just for her!Also, Marvin helped with a television issue quickly and professionally. The staff we dealt with was very helpful (except for a new girl who didn't seem to know a lot yet) and kind. Sadly, too many hotels are losing helpful and cheerful front desk staff. I travel a lot so when I can find good front desk staff, I tend to return!The pool area isn't the cleanest but the rooms and work out area are nice and feel pretty clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r348065543-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>348065543</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wonderful kitchen staff!</t>
+  </si>
+  <si>
+    <t>The kitchen manager, Brenda Brown, was absolutely amazing during our stay here at this hotel. Not only did she make sure everyone was happy with the food provided for the continental breakfast, she also greeted every guest. Although our experience with the front desk was less than pleasurable when checking-in, the kitchen manager made our mornings there a wonderful experience. Ultimately, she could definitely teach the front desk a thing or two about customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>The kitchen manager, Brenda Brown, was absolutely amazing during our stay here at this hotel. Not only did she make sure everyone was happy with the food provided for the continental breakfast, she also greeted every guest. Although our experience with the front desk was less than pleasurable when checking-in, the kitchen manager made our mornings there a wonderful experience. Ultimately, she could definitely teach the front desk a thing or two about customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r328603570-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>328603570</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay and Awesome Hospitality</t>
+  </si>
+  <si>
+    <t>This is a nice property - newly remodeled and clean.  The best part of the stay is the hospitality we were shown by Brenda Brown.  She served breakfast every morning with a smile, went out of her way to get whatever anyone needed, but even better than that treated everyone as a friend!  Thank you Brenda for starting off our day in the most positive way!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This is a nice property - newly remodeled and clean.  The best part of the stay is the hospitality we were shown by Brenda Brown.  She served breakfast every morning with a smile, went out of her way to get whatever anyone needed, but even better than that treated everyone as a friend!  Thank you Brenda for starting off our day in the most positive way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r326566332-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>326566332</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Nice location!</t>
+  </si>
+  <si>
+    <t>The staff here were super friendly. The room was very comfortable and the breakfast area had enough seating in the morning. There are plenty of places to eat nearby but the big problem is you have to circle jerk to get to one of them Pappdaux's is right up the street which was where I ate. It was beyond packed and they allow smoking in the bar. Hate that!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The staff here were super friendly. The room was very comfortable and the breakfast area had enough seating in the morning. There are plenty of places to eat nearby but the big problem is you have to circle jerk to get to one of them Pappdaux's is right up the street which was where I ate. It was beyond packed and they allow smoking in the bar. Hate that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r321740005-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>321740005</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay!</t>
+  </si>
+  <si>
+    <t>We had a nice stay at this hotel.  The bed was very comfortable and the room was clean.  The breakfast was typical Town Place fare.   The desk staff were friendly.  The breakfast gal was extremely friendly and went out of her to talk to the people eating breakfast and said to let her know if there was anything she could help with.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We had a nice stay at this hotel.  The bed was very comfortable and the room was clean.  The breakfast was typical Town Place fare.   The desk staff were friendly.  The breakfast gal was extremely friendly and went out of her to talk to the people eating breakfast and said to let her know if there was anything she could help with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r301503126-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>301503126</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>For the love of God, do not stay here.</t>
+  </si>
+  <si>
+    <t>As a flight attendant, recruiter, and customer service keynote speaker, I have stayed in Marriott hotels all over the world. I love Marriott and I never write negative reviews, but this place is terrible. When my colleagues and I were there in August there was a very poorly contained construction in progress, and the place was not just filthy but hazardous. Our reservation was for a suite that would sleep three people, but the sofa bed that was supposed to accomodate our third person was broken and wouldn't open, with a sharp metal piece sticking out. I asked if we could get a cot or rollaway bed for our third person, and was told that they didn't have any. We were told that we could be transferred to a one bedroom with a Queen bed. (Ummm… okay…..) I said that would actually make the problem worse, not better, as we needed to sleep three people. I asked if there was another suite available, and we were moved to a second suite. In this suite the sofa sleeper did open, but it was sunken in and moldy. The clerk at the front desk didn't believe me, (!!!) so I asked her to come with me and take a look. She said she couldn't leave becuase there was not another employee on the premises. What!? 
+I ended up paying for a second room for both nights on my Marriott Rewards Visa, thinking...As a flight attendant, recruiter, and customer service keynote speaker, I have stayed in Marriott hotels all over the world. I love Marriott and I never write negative reviews, but this place is terrible. When my colleagues and I were there in August there was a very poorly contained construction in progress, and the place was not just filthy but hazardous. Our reservation was for a suite that would sleep three people, but the sofa bed that was supposed to accomodate our third person was broken and wouldn't open, with a sharp metal piece sticking out. I asked if we could get a cot or rollaway bed for our third person, and was told that they didn't have any. We were told that we could be transferred to a one bedroom with a Queen bed. (Ummm… okay…..) I said that would actually make the problem worse, not better, as we needed to sleep three people. I asked if there was another suite available, and we were moved to a second suite. In this suite the sofa sleeper did open, but it was sunken in and moldy. The clerk at the front desk didn't believe me, (!!!) so I asked her to come with me and take a look. She said she couldn't leave becuase there was not another employee on the premises. What!? I ended up paying for a second room for both nights on my Marriott Rewards Visa, thinking Marriott Rewards would honor my reservation by taking care of these charges. After wasting countless hours of my life trying to get this amount refunded, I was finally granted a partial refund for the second room. The general manager, whom I'm not sure even understood the problem, acted as if she was doing me a huge favor. This was an incredibly frustrating experience.I also have to second the other reviews citing the noise problems and the criminal element in and around this hotel. I did not feel safe there at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bobby F, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded October 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2015</t>
+  </si>
+  <si>
+    <t>As a flight attendant, recruiter, and customer service keynote speaker, I have stayed in Marriott hotels all over the world. I love Marriott and I never write negative reviews, but this place is terrible. When my colleagues and I were there in August there was a very poorly contained construction in progress, and the place was not just filthy but hazardous. Our reservation was for a suite that would sleep three people, but the sofa bed that was supposed to accomodate our third person was broken and wouldn't open, with a sharp metal piece sticking out. I asked if we could get a cot or rollaway bed for our third person, and was told that they didn't have any. We were told that we could be transferred to a one bedroom with a Queen bed. (Ummm… okay…..) I said that would actually make the problem worse, not better, as we needed to sleep three people. I asked if there was another suite available, and we were moved to a second suite. In this suite the sofa sleeper did open, but it was sunken in and moldy. The clerk at the front desk didn't believe me, (!!!) so I asked her to come with me and take a look. She said she couldn't leave becuase there was not another employee on the premises. What!? 
+I ended up paying for a second room for both nights on my Marriott Rewards Visa, thinking...As a flight attendant, recruiter, and customer service keynote speaker, I have stayed in Marriott hotels all over the world. I love Marriott and I never write negative reviews, but this place is terrible. When my colleagues and I were there in August there was a very poorly contained construction in progress, and the place was not just filthy but hazardous. Our reservation was for a suite that would sleep three people, but the sofa bed that was supposed to accomodate our third person was broken and wouldn't open, with a sharp metal piece sticking out. I asked if we could get a cot or rollaway bed for our third person, and was told that they didn't have any. We were told that we could be transferred to a one bedroom with a Queen bed. (Ummm… okay…..) I said that would actually make the problem worse, not better, as we needed to sleep three people. I asked if there was another suite available, and we were moved to a second suite. In this suite the sofa sleeper did open, but it was sunken in and moldy. The clerk at the front desk didn't believe me, (!!!) so I asked her to come with me and take a look. She said she couldn't leave becuase there was not another employee on the premises. What!? I ended up paying for a second room for both nights on my Marriott Rewards Visa, thinking Marriott Rewards would honor my reservation by taking care of these charges. After wasting countless hours of my life trying to get this amount refunded, I was finally granted a partial refund for the second room. The general manager, whom I'm not sure even understood the problem, acted as if she was doing me a huge favor. This was an incredibly frustrating experience.I also have to second the other reviews citing the noise problems and the criminal element in and around this hotel. I did not feel safe there at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r294495573-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>294495573</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Short Stay - Apartment Renovation</t>
+  </si>
+  <si>
+    <t>Location:  2700 Travis St. , DeSoto, TX 75115
+I stayed @ this hotel for 10 days [6/29/15 - 7/9/15]. I agree with others on the good breakfast &amp; housekeeping services. Staff was professional overall.  
+I ONLY have 1-COMPLAINT!  Didn't realize that leaving my 'partial mouth piece with small gold tooth' would be STOLEN while out of my room a short period of time.    Yes I read their hotel rules about protecting your valuables.  But I did as usual taking my mouth piece out to soak in a cup of water in the bathroom.  Brought this matter to the General Manager's attention &amp; showed her the damage of where someone had 'broken' off the 'gold tooth' from my mouth piece. GM stated she saw nothing on her camera to suggest anyone had entered my room #204 committing this Crime!  There was a 2nd camera near outside of my door; and also another camera inside my room placed in middle of ceiling overlooking the foot of bed that would view any activity in the room @ all times!
+No compensation has been made to repair &amp; replace the missing gold tooth! ONLY a requested Incident Report copy was given to me by a front-desk evening manager!
+ NOW I'LL BE OUT OF AN UNEXPECTED EXPENSE FOR THIS DENTAL REPAIR!  I've owned this partial mouth piece almost 2 yrs; and now I'm unable to wear it (covered 4 missing teeth)- enhancing my beautiful smile!...Location:  2700 Travis St. , DeSoto, TX 75115I stayed @ this hotel for 10 days [6/29/15 - 7/9/15]. I agree with others on the good breakfast &amp; housekeeping services. Staff was professional overall.  I ONLY have 1-COMPLAINT!  Didn't realize that leaving my 'partial mouth piece with small gold tooth' would be STOLEN while out of my room a short period of time.    Yes I read their hotel rules about protecting your valuables.  But I did as usual taking my mouth piece out to soak in a cup of water in the bathroom.  Brought this matter to the General Manager's attention &amp; showed her the damage of where someone had 'broken' off the 'gold tooth' from my mouth piece. GM stated she saw nothing on her camera to suggest anyone had entered my room #204 committing this Crime!  There was a 2nd camera near outside of my door; and also another camera inside my room placed in middle of ceiling overlooking the foot of bed that would view any activity in the room @ all times!No compensation has been made to repair &amp; replace the missing gold tooth! ONLY a requested Incident Report copy was given to me by a front-desk evening manager! NOW I'LL BE OUT OF AN UNEXPECTED EXPENSE FOR THIS DENTAL REPAIR!  I've owned this partial mouth piece almost 2 yrs; and now I'm unable to wear it (covered 4 missing teeth)- enhancing my beautiful smile! I was &amp; yet am very disappointed and frustrated about that incident!  Mind you now, that their hotel rooms can only be entered with a Key Card; which any Staff Employee can enter with a Master Key Card while you're gone from your room!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Location:  2700 Travis St. , DeSoto, TX 75115
+I stayed @ this hotel for 10 days [6/29/15 - 7/9/15]. I agree with others on the good breakfast &amp; housekeeping services. Staff was professional overall.  
+I ONLY have 1-COMPLAINT!  Didn't realize that leaving my 'partial mouth piece with small gold tooth' would be STOLEN while out of my room a short period of time.    Yes I read their hotel rules about protecting your valuables.  But I did as usual taking my mouth piece out to soak in a cup of water in the bathroom.  Brought this matter to the General Manager's attention &amp; showed her the damage of where someone had 'broken' off the 'gold tooth' from my mouth piece. GM stated she saw nothing on her camera to suggest anyone had entered my room #204 committing this Crime!  There was a 2nd camera near outside of my door; and also another camera inside my room placed in middle of ceiling overlooking the foot of bed that would view any activity in the room @ all times!
+No compensation has been made to repair &amp; replace the missing gold tooth! ONLY a requested Incident Report copy was given to me by a front-desk evening manager!
+ NOW I'LL BE OUT OF AN UNEXPECTED EXPENSE FOR THIS DENTAL REPAIR!  I've owned this partial mouth piece almost 2 yrs; and now I'm unable to wear it (covered 4 missing teeth)- enhancing my beautiful smile!...Location:  2700 Travis St. , DeSoto, TX 75115I stayed @ this hotel for 10 days [6/29/15 - 7/9/15]. I agree with others on the good breakfast &amp; housekeeping services. Staff was professional overall.  I ONLY have 1-COMPLAINT!  Didn't realize that leaving my 'partial mouth piece with small gold tooth' would be STOLEN while out of my room a short period of time.    Yes I read their hotel rules about protecting your valuables.  But I did as usual taking my mouth piece out to soak in a cup of water in the bathroom.  Brought this matter to the General Manager's attention &amp; showed her the damage of where someone had 'broken' off the 'gold tooth' from my mouth piece. GM stated she saw nothing on her camera to suggest anyone had entered my room #204 committing this Crime!  There was a 2nd camera near outside of my door; and also another camera inside my room placed in middle of ceiling overlooking the foot of bed that would view any activity in the room @ all times!No compensation has been made to repair &amp; replace the missing gold tooth! ONLY a requested Incident Report copy was given to me by a front-desk evening manager! NOW I'LL BE OUT OF AN UNEXPECTED EXPENSE FOR THIS DENTAL REPAIR!  I've owned this partial mouth piece almost 2 yrs; and now I'm unable to wear it (covered 4 missing teeth)- enhancing my beautiful smile! I was &amp; yet am very disappointed and frustrated about that incident!  Mind you now, that their hotel rooms can only be entered with a Key Card; which any Staff Employee can enter with a Master Key Card while you're gone from your room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r278706753-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>278706753</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Not so great</t>
+  </si>
+  <si>
+    <t>We usually stay at Towneplace or Residence Inn because we know they will be nice. The room (suite) was small and the only mirror was in the bathroom. The closet was also in the tiny bathroom. So it took a lot of logistics just for the 2 of us to get up and going.The breakfast was also a disappointment.No protein at all the first morning and I never located fruit.On the positive side, the staff couldn't have been nicer. Due to construction in the hotel, our a/c went out but it was fixed as soon as we reported it.I probably won't return. The area has many other options.MoreShow less</t>
+  </si>
+  <si>
+    <t>We usually stay at Towneplace or Residence Inn because we know they will be nice. The room (suite) was small and the only mirror was in the bathroom. The closet was also in the tiny bathroom. So it took a lot of logistics just for the 2 of us to get up and going.The breakfast was also a disappointment.No protein at all the first morning and I never located fruit.On the positive side, the staff couldn't have been nicer. Due to construction in the hotel, our a/c went out but it was fixed as soon as we reported it.I probably won't return. The area has many other options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r250957357-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>250957357</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Nothing major wrong, just a whole lot of little things!</t>
+  </si>
+  <si>
+    <t>Where do I start? Tough to get a good nights rest when car alarms go off during the night. The heart pounding bass in the car below my window would be great if I were at a concert. The woman's blood curling scream followed by the arrival of police, then an ambulance and seeing her walked out in handcuffs to the ambulance was my Friday morning wakeup at 4:30 am. The other guests were noisy most nights, even after 10:00 pm and often way before 6:00 am. In general there seems to be a lot of activity ALL the time in the parking lot and in the halls.  
+Rooms are fairly clean but show signs of wear. Bathroom sink and tub drains were slow, despite my mentioning it on day 2 of my stay it was never fixed. I was told at check-in that they (repair techs) were "working on the a/c" and offered a fan. Since then, and it is winter, I have had my window open and a fan running constantly. Can't imagine a summer in this hotel. Other reviews tell me this is a common problem. The constant "high pitch" sound didn't help either. 
+So I was going to be here for about 2-1/2 months however, after 1 week I am checking out and changing hotels. Paying $35/night more and a 50% longer drive but will be worth it. I typically stay 150+ nights in hotels and...Where do I start? Tough to get a good nights rest when car alarms go off during the night. The heart pounding bass in the car below my window would be great if I were at a concert. The woman's blood curling scream followed by the arrival of police, then an ambulance and seeing her walked out in handcuffs to the ambulance was my Friday morning wakeup at 4:30 am. The other guests were noisy most nights, even after 10:00 pm and often way before 6:00 am. In general there seems to be a lot of activity ALL the time in the parking lot and in the halls.  Rooms are fairly clean but show signs of wear. Bathroom sink and tub drains were slow, despite my mentioning it on day 2 of my stay it was never fixed. I was told at check-in that they (repair techs) were "working on the a/c" and offered a fan. Since then, and it is winter, I have had my window open and a fan running constantly. Can't imagine a summer in this hotel. Other reviews tell me this is a common problem. The constant "high pitch" sound didn't help either. So I was going to be here for about 2-1/2 months however, after 1 week I am checking out and changing hotels. Paying $35/night more and a 50% longer drive but will be worth it. I typically stay 150+ nights in hotels and this is definitely one of my worse experiences in a LONG time.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Where do I start? Tough to get a good nights rest when car alarms go off during the night. The heart pounding bass in the car below my window would be great if I were at a concert. The woman's blood curling scream followed by the arrival of police, then an ambulance and seeing her walked out in handcuffs to the ambulance was my Friday morning wakeup at 4:30 am. The other guests were noisy most nights, even after 10:00 pm and often way before 6:00 am. In general there seems to be a lot of activity ALL the time in the parking lot and in the halls.  
+Rooms are fairly clean but show signs of wear. Bathroom sink and tub drains were slow, despite my mentioning it on day 2 of my stay it was never fixed. I was told at check-in that they (repair techs) were "working on the a/c" and offered a fan. Since then, and it is winter, I have had my window open and a fan running constantly. Can't imagine a summer in this hotel. Other reviews tell me this is a common problem. The constant "high pitch" sound didn't help either. 
+So I was going to be here for about 2-1/2 months however, after 1 week I am checking out and changing hotels. Paying $35/night more and a 50% longer drive but will be worth it. I typically stay 150+ nights in hotels and...Where do I start? Tough to get a good nights rest when car alarms go off during the night. The heart pounding bass in the car below my window would be great if I were at a concert. The woman's blood curling scream followed by the arrival of police, then an ambulance and seeing her walked out in handcuffs to the ambulance was my Friday morning wakeup at 4:30 am. The other guests were noisy most nights, even after 10:00 pm and often way before 6:00 am. In general there seems to be a lot of activity ALL the time in the parking lot and in the halls.  Rooms are fairly clean but show signs of wear. Bathroom sink and tub drains were slow, despite my mentioning it on day 2 of my stay it was never fixed. I was told at check-in that they (repair techs) were "working on the a/c" and offered a fan. Since then, and it is winter, I have had my window open and a fan running constantly. Can't imagine a summer in this hotel. Other reviews tell me this is a common problem. The constant "high pitch" sound didn't help either. So I was going to be here for about 2-1/2 months however, after 1 week I am checking out and changing hotels. Paying $35/night more and a 50% longer drive but will be worth it. I typically stay 150+ nights in hotels and this is definitely one of my worse experiences in a LONG time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r248872502-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>248872502</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Overall it's a pretty good hotel with great staff!</t>
+  </si>
+  <si>
+    <t>Got 2 rooms to attend a wedding. Staff are friendly and go the extra mile! Clean hotel that's easy to find near a neighborhood will plenty of food and shopping within easy driving distance.  Bathrooms are okay and each room had a small kitchenette with everything I needed. Free breakfast in the mornin was adequate with eggs, sausage, and waffles and pancakes. It's a suites so there seems to be some long-term guests. Felt pretty safe once the noises in the hall quieted down.  The TV picture was kinda faulty until I "adjusted" it. I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Got 2 rooms to attend a wedding. Staff are friendly and go the extra mile! Clean hotel that's easy to find near a neighborhood will plenty of food and shopping within easy driving distance.  Bathrooms are okay and each room had a small kitchenette with everything I needed. Free breakfast in the mornin was adequate with eggs, sausage, and waffles and pancakes. It's a suites so there seems to be some long-term guests. Felt pretty safe once the noises in the hall quieted down.  The TV picture was kinda faulty until I "adjusted" it. I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r245862166-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>245862166</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Clean &amp; convenient hotel!</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a couple days in December while visiting family in the DFW area. It is fairly close to I-20 (just go up Cockrell Hill Rd or take FM 1382), which will take you to the Ft Worth area. There are also quite a few restaurants and a Winn-Co nearby, so definitely a convenient location. Room: The bed was very comfortable.  Felt like it was a memory foam topped mattress, which was great for my back.  The room was nicely appointed and had a kitchenette area along with a full size fridge &amp; dishwasher. I only wished that they would put dish soap in the kitchen to hand wash dishes instead of running the dishwasher for instances where there are only a few dishes to wash.The bathroom was a standard Marriott bathroom seen in most Towneplaces &amp; newer Residence Inns. It was sufficient for the stay. Breakfast:The breakfast wasn't too great. The eggs were too salty &amp; the waffles seemed a bit too dense as opposed to being light and fluffy.  Oatmeal &amp; grits were available, but only in instant packets. The coffee was ok, but a bit weak.Gym:Small yet sufficient for a decent cardio workout &amp; light weight training.Overall, decent hotel for business travel or family visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a couple days in December while visiting family in the DFW area. It is fairly close to I-20 (just go up Cockrell Hill Rd or take FM 1382), which will take you to the Ft Worth area. There are also quite a few restaurants and a Winn-Co nearby, so definitely a convenient location. Room: The bed was very comfortable.  Felt like it was a memory foam topped mattress, which was great for my back.  The room was nicely appointed and had a kitchenette area along with a full size fridge &amp; dishwasher. I only wished that they would put dish soap in the kitchen to hand wash dishes instead of running the dishwasher for instances where there are only a few dishes to wash.The bathroom was a standard Marriott bathroom seen in most Towneplaces &amp; newer Residence Inns. It was sufficient for the stay. Breakfast:The breakfast wasn't too great. The eggs were too salty &amp; the waffles seemed a bit too dense as opposed to being light and fluffy.  Oatmeal &amp; grits were available, but only in instant packets. The coffee was ok, but a bit weak.Gym:Small yet sufficient for a decent cardio workout &amp; light weight training.Overall, decent hotel for business travel or family visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r241905601-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>241905601</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Alright place to be</t>
+  </si>
+  <si>
+    <t>This hotel was alright nothing to spectacular.  If you get the king studio and use the fold out couch you will have to crawl over the bed to get to one side which was annoying. The pillows and bed was comfy though. Unfortunately there was very little tissue in the bathroom and no extra so we had to use Kleenex.  If it's just one or two people this room may have worked better but we had our two kids with us so maybe that was the problem.  The check-in was ok I don't like that they hold $120 on my card for what he called incidentals I'm not sure what incidentals because there was no drinks or food or room service that we could have charged to the room.  Either way it's a decent hotel if you are looking a good nights sleep in that area.   And it was quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>This hotel was alright nothing to spectacular.  If you get the king studio and use the fold out couch you will have to crawl over the bed to get to one side which was annoying. The pillows and bed was comfy though. Unfortunately there was very little tissue in the bathroom and no extra so we had to use Kleenex.  If it's just one or two people this room may have worked better but we had our two kids with us so maybe that was the problem.  The check-in was ok I don't like that they hold $120 on my card for what he called incidentals I'm not sure what incidentals because there was no drinks or food or room service that we could have charged to the room.  Either way it's a decent hotel if you are looking a good nights sleep in that area.   And it was quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r238273676-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>238273676</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>This hotel is GREAT!1. It is reasonably priced2. It is very Clean3. The staf members are well trained and very friendly$. The hotel is located in a great place near major roads, good restaurants,gyms and shopping!I would highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is GREAT!1. It is reasonably priced2. It is very Clean3. The staf members are well trained and very friendly$. The hotel is located in a great place near major roads, good restaurants,gyms and shopping!I would highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r235383787-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>235383787</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We arrived this past Friday for a softball tournament that was going on that weekend near the vicinity. We were most please with the place. Check in went great..service desk clerk was very sweet and polite. We made our way up to the room and was taken aback on how big the room was. Nice kitchenette and large sleeping area. We had two doubles and a desk. Bathroom was very nice, only problem was that the door wouldn't shut all the way. They need to fix that....Room 223. We stayed two nights, and had no problem with A/C in our room. If in the area, we would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We arrived this past Friday for a softball tournament that was going on that weekend near the vicinity. We were most please with the place. Check in went great..service desk clerk was very sweet and polite. We made our way up to the room and was taken aback on how big the room was. Nice kitchenette and large sleeping area. We had two doubles and a desk. Bathroom was very nice, only problem was that the door wouldn't shut all the way. They need to fix that....Room 223. We stayed two nights, and had no problem with A/C in our room. If in the area, we would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r208273237-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>208273237</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Absolutely horrendous</t>
+  </si>
+  <si>
+    <t>As soon as we got here we waited 20 minutes in the lobby for any staff to even show up to check us in. We finally got to our room and it was okay at first glance but extremely hot. My father and brother decided to go to the pool that was probably 60 degrees so they had to get out. We had a thermostat but as far as im concerned it does absolutely nothing. You can't go lower than 67 degrees and it does not feel like 67 it feels like 95. the bed sheets had discolored stains on them, leading me to wonder why they would put a stained sheet back on the bed anyways. The people above us ran around for a good 2 and a half hours stomping. The walls are so thin you can hear disturbing sounds coming from above and beside you. The wifi was so crappy that it worked probably an eigth of the time and when it did it took 5 minutes to load any webpage. Forget trying to watch youtube or netflix it wont ever load fast enough for that. My family and I always stay at Marriots and this is the absolute worse one ive ever been to. This hotel needs some work. Do your self a favor the Motel6 or Super 8 is probably nicer than here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>As soon as we got here we waited 20 minutes in the lobby for any staff to even show up to check us in. We finally got to our room and it was okay at first glance but extremely hot. My father and brother decided to go to the pool that was probably 60 degrees so they had to get out. We had a thermostat but as far as im concerned it does absolutely nothing. You can't go lower than 67 degrees and it does not feel like 67 it feels like 95. the bed sheets had discolored stains on them, leading me to wonder why they would put a stained sheet back on the bed anyways. The people above us ran around for a good 2 and a half hours stomping. The walls are so thin you can hear disturbing sounds coming from above and beside you. The wifi was so crappy that it worked probably an eigth of the time and when it did it took 5 minutes to load any webpage. Forget trying to watch youtube or netflix it wont ever load fast enough for that. My family and I always stay at Marriots and this is the absolute worse one ive ever been to. This hotel needs some work. Do your self a favor the Motel6 or Super 8 is probably nicer than here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r207586911-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>207586911</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Management is iffy at best and trickles down</t>
+  </si>
+  <si>
+    <t>Very hard to find and even harder to find hotel front door! No place to park to check in! There are two parking spaces reserved for check in process, 10 min parking. I stayed 4 nights and there was the SAME motorcycle parked in one of  them for 3 of those nights. It was parked there 24/7 !!  I am handicapped and had to park in the far rear of the lot an walk all the way across! With broken leg and accessible plates but still nowhere available! Cars parked in designated accessible parking spots that did not have handicap plates nor hangers! But back to the motorcycle. On the 4th day I complained to front desk and was told "yes I know it's frustrating but the hotel manager won't do anything about it! And the owner of the motorcycle also has a car here and he uses that so the cycle never moves." Really!!!!?????? GM has no business being a GM. Several issues also but the above was the icing on the cake. Only thing great about the hotel were the housekeepers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very hard to find and even harder to find hotel front door! No place to park to check in! There are two parking spaces reserved for check in process, 10 min parking. I stayed 4 nights and there was the SAME motorcycle parked in one of  them for 3 of those nights. It was parked there 24/7 !!  I am handicapped and had to park in the far rear of the lot an walk all the way across! With broken leg and accessible plates but still nowhere available! Cars parked in designated accessible parking spots that did not have handicap plates nor hangers! But back to the motorcycle. On the 4th day I complained to front desk and was told "yes I know it's frustrating but the hotel manager won't do anything about it! And the owner of the motorcycle also has a car here and he uses that so the cycle never moves." Really!!!!?????? GM has no business being a GM. Several issues also but the above was the icing on the cake. Only thing great about the hotel were the housekeepers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r204134918-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>204134918</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Ideal when travelling with pets, great base for exploring the DFW area</t>
+  </si>
+  <si>
+    <t>The hotel is newly built and located opposite a major mall. The positives first - spacious rooms, clean and pet friendly, decent breakfast, free parking and indoor pool. The cons - the walls are paper thin and sound in the hallway intrudes specially as the hotel seems popular with school and activtity groups . Being close to the highway is great and the location is midway between downtown dallas and fort worth. Friendly staff and superb value in the crowded motel type market.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The hotel is newly built and located opposite a major mall. The positives first - spacious rooms, clean and pet friendly, decent breakfast, free parking and indoor pool. The cons - the walls are paper thin and sound in the hallway intrudes specially as the hotel seems popular with school and activtity groups . Being close to the highway is great and the location is midway between downtown dallas and fort worth. Friendly staff and superb value in the crowded motel type market.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r198118859-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>198118859</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel, Inconsiderate Guests</t>
+  </si>
+  <si>
+    <t>Hotel and staff were great.  Fellow guests were not very considerate.  Hallway noise was an issue 2 of 3 nights.  Parking lot was full of roughly treated cars.  Our car received a few new dings and scratches during our 3 night stay.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r197787371-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>197787371</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Shady area &amp; loitering in the parking lot</t>
+  </si>
+  <si>
+    <t>It is an OK hotel.  Great staff.  Lobby is nice.  Rooms are average.  Seem clean enough.  Nauseating smell in the hallways and elevator.  The room itself smelled fine.The bed was fine - sheets clean and crisp.  The bathroom is small - not much of a vanity.  Towels were old and some had stains.  Otherwise clean.  (Other than the hair on the toilet seat).  The carpet appeared OK, but I chose to wear slippers.  Laminate flooring in the 'kitchen' was lifting up near the appliances.  Fridgetop was dusty.  It is a shorter full size fridge and the top is just below eye level.  There was what appeared to be a homeless guy wandering the parking lot checking out a new corvette.  Not the best neighborhood in general.MoreShow less</t>
+  </si>
+  <si>
+    <t>It is an OK hotel.  Great staff.  Lobby is nice.  Rooms are average.  Seem clean enough.  Nauseating smell in the hallways and elevator.  The room itself smelled fine.The bed was fine - sheets clean and crisp.  The bathroom is small - not much of a vanity.  Towels were old and some had stains.  Otherwise clean.  (Other than the hair on the toilet seat).  The carpet appeared OK, but I chose to wear slippers.  Laminate flooring in the 'kitchen' was lifting up near the appliances.  Fridgetop was dusty.  It is a shorter full size fridge and the top is just below eye level.  There was what appeared to be a homeless guy wandering the parking lot checking out a new corvette.  Not the best neighborhood in general.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r189533187-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>189533187</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>VERY Impressed</t>
+  </si>
+  <si>
+    <t>I stayed at this location last night - and it was my first time staying at this particular chain owned by Marriott. I was super impressed.
+My 6 year old and I went to watch a hockey game in Dallas last night, and we picked this location to spend the night. When we check in prior to the game, I found that the room was very, very clean and nicely decorated. I also was unaware of how many extras it had - dishwasher, microwave, fridge with freezer, and a 2 burner electric stove. Plus, silverware and dishes. 
+All that was a very big surprise, and very convenient. 
+This morning, we ate the complementary breakfast before we made the 3 hour drive back home. The employee in charge of that area was extremely helpful. She even made my son a waffle as I got some other items for him (it's hard to keep up with a 6 year old that is FULL of energy). And, she made the effort to point out where everything was, and even talked with me about the hockey game for a moment.
+I should point out that there is a Wal-Mart very, very close, as well as a Target (in case you need anything). And, many food places to eat nearby, including my favorite - a Cheddars. 
+From now on when we go see games in Dallas, I will be picking this location as my regular...I stayed at this location last night - and it was my first time staying at this particular chain owned by Marriott. I was super impressed.My 6 year old and I went to watch a hockey game in Dallas last night, and we picked this location to spend the night. When we check in prior to the game, I found that the room was very, very clean and nicely decorated. I also was unaware of how many extras it had - dishwasher, microwave, fridge with freezer, and a 2 burner electric stove. Plus, silverware and dishes. All that was a very big surprise, and very convenient. This morning, we ate the complementary breakfast before we made the 3 hour drive back home. The employee in charge of that area was extremely helpful. She even made my son a waffle as I got some other items for him (it's hard to keep up with a 6 year old that is FULL of energy). And, she made the effort to point out where everything was, and even talked with me about the hockey game for a moment.I should point out that there is a Wal-Mart very, very close, as well as a Target (in case you need anything). And, many food places to eat nearby, including my favorite - a Cheddars. From now on when we go see games in Dallas, I will be picking this location as my regular place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this location last night - and it was my first time staying at this particular chain owned by Marriott. I was super impressed.
+My 6 year old and I went to watch a hockey game in Dallas last night, and we picked this location to spend the night. When we check in prior to the game, I found that the room was very, very clean and nicely decorated. I also was unaware of how many extras it had - dishwasher, microwave, fridge with freezer, and a 2 burner electric stove. Plus, silverware and dishes. 
+All that was a very big surprise, and very convenient. 
+This morning, we ate the complementary breakfast before we made the 3 hour drive back home. The employee in charge of that area was extremely helpful. She even made my son a waffle as I got some other items for him (it's hard to keep up with a 6 year old that is FULL of energy). And, she made the effort to point out where everything was, and even talked with me about the hockey game for a moment.
+I should point out that there is a Wal-Mart very, very close, as well as a Target (in case you need anything). And, many food places to eat nearby, including my favorite - a Cheddars. 
+From now on when we go see games in Dallas, I will be picking this location as my regular...I stayed at this location last night - and it was my first time staying at this particular chain owned by Marriott. I was super impressed.My 6 year old and I went to watch a hockey game in Dallas last night, and we picked this location to spend the night. When we check in prior to the game, I found that the room was very, very clean and nicely decorated. I also was unaware of how many extras it had - dishwasher, microwave, fridge with freezer, and a 2 burner electric stove. Plus, silverware and dishes. All that was a very big surprise, and very convenient. This morning, we ate the complementary breakfast before we made the 3 hour drive back home. The employee in charge of that area was extremely helpful. She even made my son a waffle as I got some other items for him (it's hard to keep up with a 6 year old that is FULL of energy). And, she made the effort to point out where everything was, and even talked with me about the hockey game for a moment.I should point out that there is a Wal-Mart very, very close, as well as a Target (in case you need anything). And, many food places to eat nearby, including my favorite - a Cheddars. From now on when we go see games in Dallas, I will be picking this location as my regular place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r185730589-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>185730589</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>A few weeks ago I stayed at the TownPlace Suites in DeSoto and I can honestly say that I had a great experience there. Everything from the front desk to the management was great. The hotel was also spotless. The General Manager, Lynette Hooper, was very polite and made sure that my stay was up to par. Novi, Darrius, and Miss Joyce all had great customer service and greeted me each and every time I walked through the doors. I had a question about where the local Walmart was and they had no problem printing out directions for me. I loved my stay at this hotel and I will be making another reservation as well as recommendations to friends and family. Great Job Lynette Hooper and the staff at the TownPlace Suites, keep up the good work!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2013</t>
+  </si>
+  <si>
+    <t>A few weeks ago I stayed at the TownPlace Suites in DeSoto and I can honestly say that I had a great experience there. Everything from the front desk to the management was great. The hotel was also spotless. The General Manager, Lynette Hooper, was very polite and made sure that my stay was up to par. Novi, Darrius, and Miss Joyce all had great customer service and greeted me each and every time I walked through the doors. I had a question about where the local Walmart was and they had no problem printing out directions for me. I loved my stay at this hotel and I will be making another reservation as well as recommendations to friends and family. Great Job Lynette Hooper and the staff at the TownPlace Suites, keep up the good work!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r183099032-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>183099032</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Cleanest Hotel, Nicest Staff so far!</t>
+  </si>
+  <si>
+    <t>This Hotel is CLEAN! I could smell clean everywhere I walked and most important, the room. Staff can always be found cleaning, until early evening. The food is typical for a Marriot as far as breakfast goes. Star Staff: Lynette Hooper, General Manager was a shining star! Rozalind, Novi, Darius, Natasha all shine which with a Super GM, indicates to me, excellent training and example. Considering we are next to the highway, quiet and slept very well for 3 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded November 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2013</t>
+  </si>
+  <si>
+    <t>This Hotel is CLEAN! I could smell clean everywhere I walked and most important, the room. Staff can always be found cleaning, until early evening. The food is typical for a Marriot as far as breakfast goes. Star Staff: Lynette Hooper, General Manager was a shining star! Rozalind, Novi, Darius, Natasha all shine which with a Super GM, indicates to me, excellent training and example. Considering we are next to the highway, quiet and slept very well for 3 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r175558157-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>175558157</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>My first time in Texas and the service was great. The locations address is new and not recognized by GpS and when I called the people at the counter were a giant help. They also gave me free popcorn and told me about a root beer social the next night. Very welcoming. MoreShow less</t>
+  </si>
+  <si>
+    <t>My first time in Texas and the service was great. The locations address is new and not recognized by GpS and when I called the people at the counter were a giant help. They also gave me free popcorn and told me about a root beer social the next night. Very welcoming. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r157653927-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>157653927</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Robbed at gunpoint in lobby and not even acknowledged by Hotel Manager</t>
+  </si>
+  <si>
+    <t>On Tuesday April 9,2013, while staying at the TownePlace Suites in Desoto TX,  I had a life altering event that will forever change me and more than likely the front desk clerk as well. At approximately 10:10 pm, I was sitting at the computer in the lobby printing my boarding pass for my flight back home to Minnesota the next day. I was just about to log off the computer when I felt someone standing very close behind me. As I started to turn around to see if they needed the computer, I was told not to turn around and was asked where my money was. i replyed that I didn't have any money with me and felt something stick into my side. When I looked down, I saw a  black pistol in my side and I knew at that moment this was really bad.Although I kept my head down and sat very still, I could see the front desk very clearly from where I was sitting out of the corner of my eye. I saw the 2nd assailant, an african american male with his arm held straight out at the front desk clerk pointing a gun directly at her.I told the man I again that I had no money and begged him not to shoot me. He told me I was lying and asked again where my money was. I again begged him, 'please don't shoot, I have no...On Tuesday April 9,2013, while staying at the TownePlace Suites in Desoto TX,  I had a life altering event that will forever change me and more than likely the front desk clerk as well. At approximately 10:10 pm, I was sitting at the computer in the lobby printing my boarding pass for my flight back home to Minnesota the next day. I was just about to log off the computer when I felt someone standing very close behind me. As I started to turn around to see if they needed the computer, I was told not to turn around and was asked where my money was. i replyed that I didn't have any money with me and felt something stick into my side. When I looked down, I saw a  black pistol in my side and I knew at that moment this was really bad.Although I kept my head down and sat very still, I could see the front desk very clearly from where I was sitting out of the corner of my eye. I saw the 2nd assailant, an african american male with his arm held straight out at the front desk clerk pointing a gun directly at her.I told the man I again that I had no money and begged him not to shoot me. He told me I was lying and asked again where my money was. I again begged him, 'please don't shoot, I have no money anywhere on or around me. I then offered up my cell phone--the only thing I had brought out to the lobby with me of any value. He took my cell phone all the while keeping the gun in my side. Meanwhile the front desk clerk remained calm and took the entire drawer of money out of the till and told him to take whatever he wanted. He then grabbed the money and the two of them took off out the front doors of the hotel. The whole event probably lasted about 2 minutes but felt like an eternity. Had it not been for the calm demeanor of the front desk clerk and the grace of God, I would probably not be sitting here today. Do i think i was in the wrong place at the wrong time?Yes. Do I think this could have been prevented? Maybe, but I am not sure I'll ever know. While being interviewed by police, I found out that the Security guard was late for his shift.  I only found this out because the Hotel Manager stormed in the back room irate that he was nowhere to be found and the front desk clerk sitting next to me confirmed he had not shown up prior to the armed robbery. She also confirmed that the "angry lady" was the hotel Manager.  I do not know what took place with the security guard, nor do I know any other details of the incident because after my interview the police because I went directly back to my room, alone and a complete mess.  I  never heard another word from the Manager or from anyone at the hotel...even at the point of checkout the next morning. I was asked upon checkout how my stay was. I replied "not good."  When asked why, my reply was that I was one of the people held at gun point last night in their lobby so up until that point I guess it was an okay stay. The front desk clerk said she was very sorry and that it never should have happened. I then asked for a copy of my receipt and she handed it to me. As I was about to leave, there was one woman who came out of the back that I had seen upon my arrival to the hotel and also during the interview with police and she did gave me a hug. It was not the hotel Manager I had seen the night before.  I was grateful for the kindness of the woman who hugged me, but truly I just wanted to get out of that place. I was traumatized and alone and just wanted to get home. My questions are this--what has happened to CUSTOMER SERVICE and just plain humanity in some people? How does a Manager of a hotel not make it a point to seek out the victim of a crime that happened in her establishment?  A simple wellness check, phone call, or even a free nights stay would have sufficed at that point, but she did NOTHING. I was charged for all three nights and not once acknowledged by her--even during the police interview.  It was like I was just another guest who had just had a pleasant stay. Am I angry at the hotel staff? Absolutely not. They were as kind and accommodating as any staff could be. My disbelief and anger comes in at the two thugs who robbed the hotel at gun-point and the Hotel Manager who did NOTHING.   Perhaps she should watch the survelience video a couple more times to see the trauma that unfolded, but my guess is that it wouldn't have made a difference. 4 days has passed and I have heard nothing.  Signed-- Disgusted guest/Desoto police Dept case # 13-1824.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded August 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2013</t>
+  </si>
+  <si>
+    <t>On Tuesday April 9,2013, while staying at the TownePlace Suites in Desoto TX,  I had a life altering event that will forever change me and more than likely the front desk clerk as well. At approximately 10:10 pm, I was sitting at the computer in the lobby printing my boarding pass for my flight back home to Minnesota the next day. I was just about to log off the computer when I felt someone standing very close behind me. As I started to turn around to see if they needed the computer, I was told not to turn around and was asked where my money was. i replyed that I didn't have any money with me and felt something stick into my side. When I looked down, I saw a  black pistol in my side and I knew at that moment this was really bad.Although I kept my head down and sat very still, I could see the front desk very clearly from where I was sitting out of the corner of my eye. I saw the 2nd assailant, an african american male with his arm held straight out at the front desk clerk pointing a gun directly at her.I told the man I again that I had no money and begged him not to shoot me. He told me I was lying and asked again where my money was. I again begged him, 'please don't shoot, I have no...On Tuesday April 9,2013, while staying at the TownePlace Suites in Desoto TX,  I had a life altering event that will forever change me and more than likely the front desk clerk as well. At approximately 10:10 pm, I was sitting at the computer in the lobby printing my boarding pass for my flight back home to Minnesota the next day. I was just about to log off the computer when I felt someone standing very close behind me. As I started to turn around to see if they needed the computer, I was told not to turn around and was asked where my money was. i replyed that I didn't have any money with me and felt something stick into my side. When I looked down, I saw a  black pistol in my side and I knew at that moment this was really bad.Although I kept my head down and sat very still, I could see the front desk very clearly from where I was sitting out of the corner of my eye. I saw the 2nd assailant, an african american male with his arm held straight out at the front desk clerk pointing a gun directly at her.I told the man I again that I had no money and begged him not to shoot me. He told me I was lying and asked again where my money was. I again begged him, 'please don't shoot, I have no money anywhere on or around me. I then offered up my cell phone--the only thing I had brought out to the lobby with me of any value. He took my cell phone all the while keeping the gun in my side. Meanwhile the front desk clerk remained calm and took the entire drawer of money out of the till and told him to take whatever he wanted. He then grabbed the money and the two of them took off out the front doors of the hotel. The whole event probably lasted about 2 minutes but felt like an eternity. Had it not been for the calm demeanor of the front desk clerk and the grace of God, I would probably not be sitting here today. Do i think i was in the wrong place at the wrong time?Yes. Do I think this could have been prevented? Maybe, but I am not sure I'll ever know. While being interviewed by police, I found out that the Security guard was late for his shift.  I only found this out because the Hotel Manager stormed in the back room irate that he was nowhere to be found and the front desk clerk sitting next to me confirmed he had not shown up prior to the armed robbery. She also confirmed that the "angry lady" was the hotel Manager.  I do not know what took place with the security guard, nor do I know any other details of the incident because after my interview the police because I went directly back to my room, alone and a complete mess.  I  never heard another word from the Manager or from anyone at the hotel...even at the point of checkout the next morning. I was asked upon checkout how my stay was. I replied "not good."  When asked why, my reply was that I was one of the people held at gun point last night in their lobby so up until that point I guess it was an okay stay. The front desk clerk said she was very sorry and that it never should have happened. I then asked for a copy of my receipt and she handed it to me. As I was about to leave, there was one woman who came out of the back that I had seen upon my arrival to the hotel and also during the interview with police and she did gave me a hug. It was not the hotel Manager I had seen the night before.  I was grateful for the kindness of the woman who hugged me, but truly I just wanted to get out of that place. I was traumatized and alone and just wanted to get home. My questions are this--what has happened to CUSTOMER SERVICE and just plain humanity in some people? How does a Manager of a hotel not make it a point to seek out the victim of a crime that happened in her establishment?  A simple wellness check, phone call, or even a free nights stay would have sufficed at that point, but she did NOTHING. I was charged for all three nights and not once acknowledged by her--even during the police interview.  It was like I was just another guest who had just had a pleasant stay. Am I angry at the hotel staff? Absolutely not. They were as kind and accommodating as any staff could be. My disbelief and anger comes in at the two thugs who robbed the hotel at gun-point and the Hotel Manager who did NOTHING.   Perhaps she should watch the survelience video a couple more times to see the trauma that unfolded, but my guess is that it wouldn't have made a difference. 4 days has passed and I have heard nothing.  Signed-- Disgusted guest/Desoto police Dept case # 13-1824.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r156919138-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>156919138</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Staff was very accommodating and did a great job solving issues started by Expedia booking errors.  My room was very clean and comfortable.  Only down side was building maintenance by the hotel management company.  A city water outage caused the washers to become nonoperational.  Their "maintenance man" called in sick so laundry facilities were nonexistent for nearly 48 hours. Not good with a nearly full hotel and no nearby laundromat.  Being a "Marriott" affiliate, a repair company should have been called in to do the simple task of resetting the washers.  A dryer was also down for my entire stay of 3 weeks.  Other than this hiccup, it was an enjoyable stay and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Staff was very accommodating and did a great job solving issues started by Expedia booking errors.  My room was very clean and comfortable.  Only down side was building maintenance by the hotel management company.  A city water outage caused the washers to become nonoperational.  Their "maintenance man" called in sick so laundry facilities were nonexistent for nearly 48 hours. Not good with a nearly full hotel and no nearby laundromat.  Being a "Marriott" affiliate, a repair company should have been called in to do the simple task of resetting the washers.  A dryer was also down for my entire stay of 3 weeks.  Other than this hiccup, it was an enjoyable stay and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r156235345-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>156235345</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Property and Service</t>
+  </si>
+  <si>
+    <t>Staff couldn't be more hospitable. Breakfast is excellent. Easy access to I85. Many good restaurants right around the corner. Will soon be putting Keurig coffee and coffee makers in each room. We stay in many TownPlace Suites across the country, and this is one of the best.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r147879541-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>147879541</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>Amazing kitchen in your room</t>
+  </si>
+  <si>
+    <t>The best suites hotel I have seen. The kitchen area is quite impressive--very helpful as we were traveling with a baby and accompanying bottles, etc. We enjoyed the complimentary breakfast very much. My only complaint had to do with the maid service. Apparently we stayed on a very busy weekend, and after being gone all day long, we returned at 3pm to find our room wasn't clean. We needed to dress and prepare for a special evening event, but the maid said that our room wouldn't be cleaned if we didn't leave the room right then. I was frustrated that the room had been unoccupied for 6 hours and not cleaned. I did speak to the front desk and calmly insisted that this was their problem and not mine, and I expected our room to be cleaned after we left for the evening. The room was ultimately cleaned, but I felt frustrated by having to insist on service we had paid for.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>The best suites hotel I have seen. The kitchen area is quite impressive--very helpful as we were traveling with a baby and accompanying bottles, etc. We enjoyed the complimentary breakfast very much. My only complaint had to do with the maid service. Apparently we stayed on a very busy weekend, and after being gone all day long, we returned at 3pm to find our room wasn't clean. We needed to dress and prepare for a special evening event, but the maid said that our room wouldn't be cleaned if we didn't leave the room right then. I was frustrated that the room had been unoccupied for 6 hours and not cleaned. I did speak to the front desk and calmly insisted that this was their problem and not mine, and I expected our room to be cleaned after we left for the evening. The room was ultimately cleaned, but I felt frustrated by having to insist on service we had paid for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r146404884-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>146404884</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>The Saga of Two Stays in 30 days</t>
+  </si>
+  <si>
+    <t>Positives: helpful staff, pleasing to the eyes, clean rooms
+Negatives: repair and functional issues, intermittent guest noise
+We stayed at this location twice within a month, once in October, 2012, and most recently in November. Generally speaking, our visits were pleasant, due in large part to the professionalism and courtesy of the staff. When problems occurred, they were quick to respond with decisive and effective action.
+The following narrative outlines both experiences. I apologize in advance for the length, but believe it necessary to reveal what other guests might encounter and to show how the staff solved problems.
+OCTOBER, 2012 -
+Our first visit occurred during a fall vacation. We stayed six nights. During that time we developed a good idea of this hotel's strengths and weaknesses.  
+We quickly realized the staff is this hotel's strongest attribute. Employees were pleasant, knowledgeable, and eager to assist. Front desk personnel filled all our requests, housekeeping was efficient...even attendants at the breakfast nook were pleasant. A lot of businesses say their "people are their greatest resource". This is a fact at the Desoto TownePlace Suites.
+On the negative side, we noticed the physical property, while bright and clean, suffered from minor repair issues. We also observed a fairly high amount of guest noise, including "floor noise" from the room above ours. One resident literally hit the floor at 11:00 p.m. and continued moving around until 7:00 a.m., when the footfalls and stomping ceased....Positives: helpful staff, pleasing to the eyes, clean roomsNegatives: repair and functional issues, intermittent guest noiseWe stayed at this location twice within a month, once in October, 2012, and most recently in November. Generally speaking, our visits were pleasant, due in large part to the professionalism and courtesy of the staff. When problems occurred, they were quick to respond with decisive and effective action.The following narrative outlines both experiences. I apologize in advance for the length, but believe it necessary to reveal what other guests might encounter and to show how the staff solved problems.OCTOBER, 2012 -Our first visit occurred during a fall vacation. We stayed six nights. During that time we developed a good idea of this hotel's strengths and weaknesses.  We quickly realized the staff is this hotel's strongest attribute. Employees were pleasant, knowledgeable, and eager to assist. Front desk personnel filled all our requests, housekeeping was efficient...even attendants at the breakfast nook were pleasant. A lot of businesses say their "people are their greatest resource". This is a fact at the Desoto TownePlace Suites.On the negative side, we noticed the physical property, while bright and clean, suffered from minor repair issues. We also observed a fairly high amount of guest noise, including "floor noise" from the room above ours. One resident literally hit the floor at 11:00 p.m. and continued moving around until 7:00 a.m., when the footfalls and stomping ceased. The sound wasn't so loud that it prevented sleep, but it did interrupt our rest by waking us intermittently throughout the early morning hours.Interestingly, our room was next to the elevator. It never bothered us!Apparently others heard noise and took action. During breakfast one morning we overheard a guest explain they eventually called the front desk.Generally, the property was clean, but we did find frothy beige glop on ice from the first-floor ice maker. My wife works in food service and is very aware of issues ice dispensers can cause. We discarded that batch, made ice in trays (provided in the the room refrigerator), and bought a bag of ice from a convenience store the next day. We haven't gotten ice from that machine since.Our king suite packed a lot of functionality into a small space: bed, side tables, sofa with ottoman, built-in desk, and kitchette. The bathroom is comfortably-sized but has almost no counter space for toiletries. An amply-sized closet adjoins the bath, but it lacked a luggage stand. We moved the ottoman into the closet to hold our bags.We found room furnishings comfortable. Lights and appliances worked perfectly, and the television had a good selection of channels. The kitchen utensils were more than adequate for our week-long stay.I loved their baggage carts; they are compact but functional and are much easier to guide than a traditional hotel cart.Ongoing maintenance can be seen, but so can unrepaired wear and tear. We saw evidence of refurbishing in our room but the hall carpet was frayed. Flushing our toilet was a gamble. Most of the time it hesitated then "gulped" the contents, but about 25% of the time it gurgled and hissed and failed to empty. One of the bars on our towel rack fell out but we were easily able to put it back into place.Once considered a luxury, breakfast is now all but expected at hotels. This property offers a small variety of cold cereals, microwave oatmeal, breads and pastries, and waffles. Two fruits were offered: apples and bananas. One "hot breakfast option" is available each day. During this visit we saw (1) scrambled eggs with biscuits and gravy (twice), (2) biscuits and plain gravy, (3) biscuits and gravy containing sausage chunks, (4) scrambled eggs with sausage patties, and (5) scrambled eggs with corned beef hash. The eggs always contained chives.Drink options include the usual array of milks, juices, coffees, and teas.Overall, our first stay was a great success. we had a very good time and were glad to have found such a nice hotel close to the people we see and things we do in Dallas...so much so that we returned a few weeks later for a one-night visit. NOVEMBER, 2012...Experiences of our first visit were magnified during our second. We experienced "higher highs" and "lower lows". One situation, had it not been quickly resolved, would have have resulted in cancellation and a move to another hotel. To their credit, staff members were quick to provide a solution.Check-in took much longer this visit. Several large groups arrived shortly before us. Some were affiliated with youth sports; others had attended a funeral, and yet another group appeared to have come for some sort of social event...perhaps a family reunion or large birthday party. I say this because balloons were taped outside of a room on the third floor. I was seventh in line to check-in, and continually had to dodge loiterers in the lobby, maintenance staffers trying to navigate the crowd, and a group of caterers delivering food. The entire checkin process took about fifteen minutes.Our reservation was for two rooms to accommodate four people. The desk clerk quickly processed payment and provided keys to one room on the second floor and another on the third, both in the west wing. We immediately went to examine facilities prior to settling in.The temperature inside our second-floor room was very comfortable, but the third-floor room was warm and stuffy, even though the thermostat was set at 67 degrees Fahrenheit. We tried unsuccessfully to adjust the thermostat downward. It remained at 67. We then turned the fan to "high" but the room became warmer. To make sure the air conditioner really was broken we stayed in the room about 10 minutes then returned to the front desk for assistance. During that time I noticed cracks and buckled wallboard tape in both external corners of the room. I thought it strange that walls in this room, including the buckled tape, appeared to have been recently painted. Other details such as laminate flooring that stopped an inch short of the door jamb made the room feel as if it had been maintained by amateurs (like me!) While waiting we also noticed a lot of noise from surrounding rooms, and wondered aloud if guests would be quieter during the evening. (More about this in a moment...)After it became apparent the room would not cool, I returned to the front desk to wait in line again. The desk clerk, who'd obviously had a rough day, apologized profusely and quickly provided keys to a room in the east wing of the second floor...far from the noise we'd heard in the west wing of the third floor. The temperature in our replacement room was excellent and the thermostat functioned perfectly. Furnishings and fixtures were in excellent condition. Everything, including the toilet, worked great! In retrospect, it was the best of the four rooms we've occupied at this hotel. We were delighted with the solution, as we were afraid with the crowds they wouldn't be able to provide a cool room. Crisis averted! A little guest noise could be heard in the hallway as groups of teens passed by, but that stopped by 11:00 p.m. The next morning we saw several families with children, tweens and teens emerge from nearby rooms. These people had been so quiet we didn't know those rooms were occupied!The other two members of our party weren't quite so fortunate. They reported intermittent noise through the evening and into the morning hours. Both are heavy sleepers, but were awakened about 2:30 a.m. with "surround sound" clamor in the hallway and from the floor above. They reported the situation to the front desk, awaited a half-hour, then called again when the party continued. It subsided about 3:00 a.m....they weren't sure why...but assume the staff intervened. (We appreciate and respect employees who are forced to deal with situations like this!)Breakfast was similar to our first stay. The hot meal consisted of biscuits and sausage patties...no eggs or gravy. Interestingly, neither time were plain oatmeal packets available...only flavors such as Apple-Cinnamon and Maple. I'd have eaten plain oatmeal some days had it been available.SUMMARY...In our opinion, the Desoto TownePlace Suites is a two-star hotel with a five star staff. It provides a comfortable level of amenities for a reasonable price. The facility is attractive...I loved photographing the property...but minor maintenance flaws and amenities keep it from being as exceptional as other Marriott properties we've visited. Most things we noticed are nuisances. The only critical problem we noted was the beige glop in the ice the first night.The staff, however, compensates for these small deficiencies. They make the most of what they have to work with. Customers are valued and made to feel at home here. We appreciate their efforts. We've already returned once, and will again. Final note: this hotel is visible from the highway but getting to it can be tricky. The building sits away from the frontage road and it's easy to overlook the primary turnoff. Fortunately, many surrounding parking lots are interconnected. It's easy to navigate through them if you miss the first entrance. Once you've mastered entry, you'll have no problem returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Positives: helpful staff, pleasing to the eyes, clean rooms
+Negatives: repair and functional issues, intermittent guest noise
+We stayed at this location twice within a month, once in October, 2012, and most recently in November. Generally speaking, our visits were pleasant, due in large part to the professionalism and courtesy of the staff. When problems occurred, they were quick to respond with decisive and effective action.
+The following narrative outlines both experiences. I apologize in advance for the length, but believe it necessary to reveal what other guests might encounter and to show how the staff solved problems.
+OCTOBER, 2012 -
+Our first visit occurred during a fall vacation. We stayed six nights. During that time we developed a good idea of this hotel's strengths and weaknesses.  
+We quickly realized the staff is this hotel's strongest attribute. Employees were pleasant, knowledgeable, and eager to assist. Front desk personnel filled all our requests, housekeeping was efficient...even attendants at the breakfast nook were pleasant. A lot of businesses say their "people are their greatest resource". This is a fact at the Desoto TownePlace Suites.
+On the negative side, we noticed the physical property, while bright and clean, suffered from minor repair issues. We also observed a fairly high amount of guest noise, including "floor noise" from the room above ours. One resident literally hit the floor at 11:00 p.m. and continued moving around until 7:00 a.m., when the footfalls and stomping ceased....Positives: helpful staff, pleasing to the eyes, clean roomsNegatives: repair and functional issues, intermittent guest noiseWe stayed at this location twice within a month, once in October, 2012, and most recently in November. Generally speaking, our visits were pleasant, due in large part to the professionalism and courtesy of the staff. When problems occurred, they were quick to respond with decisive and effective action.The following narrative outlines both experiences. I apologize in advance for the length, but believe it necessary to reveal what other guests might encounter and to show how the staff solved problems.OCTOBER, 2012 -Our first visit occurred during a fall vacation. We stayed six nights. During that time we developed a good idea of this hotel's strengths and weaknesses.  We quickly realized the staff is this hotel's strongest attribute. Employees were pleasant, knowledgeable, and eager to assist. Front desk personnel filled all our requests, housekeeping was efficient...even attendants at the breakfast nook were pleasant. A lot of businesses say their "people are their greatest resource". This is a fact at the Desoto TownePlace Suites.On the negative side, we noticed the physical property, while bright and clean, suffered from minor repair issues. We also observed a fairly high amount of guest noise, including "floor noise" from the room above ours. One resident literally hit the floor at 11:00 p.m. and continued moving around until 7:00 a.m., when the footfalls and stomping ceased. The sound wasn't so loud that it prevented sleep, but it did interrupt our rest by waking us intermittently throughout the early morning hours.Interestingly, our room was next to the elevator. It never bothered us!Apparently others heard noise and took action. During breakfast one morning we overheard a guest explain they eventually called the front desk.Generally, the property was clean, but we did find frothy beige glop on ice from the first-floor ice maker. My wife works in food service and is very aware of issues ice dispensers can cause. We discarded that batch, made ice in trays (provided in the the room refrigerator), and bought a bag of ice from a convenience store the next day. We haven't gotten ice from that machine since.Our king suite packed a lot of functionality into a small space: bed, side tables, sofa with ottoman, built-in desk, and kitchette. The bathroom is comfortably-sized but has almost no counter space for toiletries. An amply-sized closet adjoins the bath, but it lacked a luggage stand. We moved the ottoman into the closet to hold our bags.We found room furnishings comfortable. Lights and appliances worked perfectly, and the television had a good selection of channels. The kitchen utensils were more than adequate for our week-long stay.I loved their baggage carts; they are compact but functional and are much easier to guide than a traditional hotel cart.Ongoing maintenance can be seen, but so can unrepaired wear and tear. We saw evidence of refurbishing in our room but the hall carpet was frayed. Flushing our toilet was a gamble. Most of the time it hesitated then "gulped" the contents, but about 25% of the time it gurgled and hissed and failed to empty. One of the bars on our towel rack fell out but we were easily able to put it back into place.Once considered a luxury, breakfast is now all but expected at hotels. This property offers a small variety of cold cereals, microwave oatmeal, breads and pastries, and waffles. Two fruits were offered: apples and bananas. One "hot breakfast option" is available each day. During this visit we saw (1) scrambled eggs with biscuits and gravy (twice), (2) biscuits and plain gravy, (3) biscuits and gravy containing sausage chunks, (4) scrambled eggs with sausage patties, and (5) scrambled eggs with corned beef hash. The eggs always contained chives.Drink options include the usual array of milks, juices, coffees, and teas.Overall, our first stay was a great success. we had a very good time and were glad to have found such a nice hotel close to the people we see and things we do in Dallas...so much so that we returned a few weeks later for a one-night visit. NOVEMBER, 2012...Experiences of our first visit were magnified during our second. We experienced "higher highs" and "lower lows". One situation, had it not been quickly resolved, would have have resulted in cancellation and a move to another hotel. To their credit, staff members were quick to provide a solution.Check-in took much longer this visit. Several large groups arrived shortly before us. Some were affiliated with youth sports; others had attended a funeral, and yet another group appeared to have come for some sort of social event...perhaps a family reunion or large birthday party. I say this because balloons were taped outside of a room on the third floor. I was seventh in line to check-in, and continually had to dodge loiterers in the lobby, maintenance staffers trying to navigate the crowd, and a group of caterers delivering food. The entire checkin process took about fifteen minutes.Our reservation was for two rooms to accommodate four people. The desk clerk quickly processed payment and provided keys to one room on the second floor and another on the third, both in the west wing. We immediately went to examine facilities prior to settling in.The temperature inside our second-floor room was very comfortable, but the third-floor room was warm and stuffy, even though the thermostat was set at 67 degrees Fahrenheit. We tried unsuccessfully to adjust the thermostat downward. It remained at 67. We then turned the fan to "high" but the room became warmer. To make sure the air conditioner really was broken we stayed in the room about 10 minutes then returned to the front desk for assistance. During that time I noticed cracks and buckled wallboard tape in both external corners of the room. I thought it strange that walls in this room, including the buckled tape, appeared to have been recently painted. Other details such as laminate flooring that stopped an inch short of the door jamb made the room feel as if it had been maintained by amateurs (like me!) While waiting we also noticed a lot of noise from surrounding rooms, and wondered aloud if guests would be quieter during the evening. (More about this in a moment...)After it became apparent the room would not cool, I returned to the front desk to wait in line again. The desk clerk, who'd obviously had a rough day, apologized profusely and quickly provided keys to a room in the east wing of the second floor...far from the noise we'd heard in the west wing of the third floor. The temperature in our replacement room was excellent and the thermostat functioned perfectly. Furnishings and fixtures were in excellent condition. Everything, including the toilet, worked great! In retrospect, it was the best of the four rooms we've occupied at this hotel. We were delighted with the solution, as we were afraid with the crowds they wouldn't be able to provide a cool room. Crisis averted! A little guest noise could be heard in the hallway as groups of teens passed by, but that stopped by 11:00 p.m. The next morning we saw several families with children, tweens and teens emerge from nearby rooms. These people had been so quiet we didn't know those rooms were occupied!The other two members of our party weren't quite so fortunate. They reported intermittent noise through the evening and into the morning hours. Both are heavy sleepers, but were awakened about 2:30 a.m. with "surround sound" clamor in the hallway and from the floor above. They reported the situation to the front desk, awaited a half-hour, then called again when the party continued. It subsided about 3:00 a.m....they weren't sure why...but assume the staff intervened. (We appreciate and respect employees who are forced to deal with situations like this!)Breakfast was similar to our first stay. The hot meal consisted of biscuits and sausage patties...no eggs or gravy. Interestingly, neither time were plain oatmeal packets available...only flavors such as Apple-Cinnamon and Maple. I'd have eaten plain oatmeal some days had it been available.SUMMARY...In our opinion, the Desoto TownePlace Suites is a two-star hotel with a five star staff. It provides a comfortable level of amenities for a reasonable price. The facility is attractive...I loved photographing the property...but minor maintenance flaws and amenities keep it from being as exceptional as other Marriott properties we've visited. Most things we noticed are nuisances. The only critical problem we noted was the beige glop in the ice the first night.The staff, however, compensates for these small deficiencies. They make the most of what they have to work with. Customers are valued and made to feel at home here. We appreciate their efforts. We've already returned once, and will again. Final note: this hotel is visible from the highway but getting to it can be tricky. The building sits away from the frontage road and it's easy to overlook the primary turnoff. Fortunately, many surrounding parking lots are interconnected. It's easy to navigate through them if you miss the first entrance. Once you've mastered entry, you'll have no problem returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r144376596-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>144376596</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>FLEA INFESTATION</t>
+  </si>
+  <si>
+    <t>My Mom, husband, and I booked our stay at Townplace Suites Dallas Desoto.  My Mom stayed in room 209 while my husband and I stayed in another room.  Little did we know that the first two floors are "pet friendly."  I went into her room to drop off her luggage and was in there a total of five minutes.  Later on the next day, I found a flea crawling on my newborn baby's head.  I thought it may have jumped on one of us when we walked in the elevator, etc.  My ankles and feet started itching like crazy.  I immediately called my Mom, and when she pulled back the sheets on the bed next to her (there were two beds), hundreds of fleas were clearly visible and jumping around.  While the hotel immediately relocated her to another room that night, we heard excuse after excuse on how the previous person using the room must have "snuck their pet in."  It was clear to me for a flea infestation that bad, housekeeping and management clearly did not do their due diligence in inspecting the cleanliness of the room afterwards regardless of someone bringing in a pet.  My Mother was covered in flea bites, I had numerous bites from the five minutes I was in the room, and we had to try to separate and sanitize everything before leaving the hotel (I cut our stay short of course and hotels.com refunded...My Mom, husband, and I booked our stay at Townplace Suites Dallas Desoto.  My Mom stayed in room 209 while my husband and I stayed in another room.  Little did we know that the first two floors are "pet friendly."  I went into her room to drop off her luggage and was in there a total of five minutes.  Later on the next day, I found a flea crawling on my newborn baby's head.  I thought it may have jumped on one of us when we walked in the elevator, etc.  My ankles and feet started itching like crazy.  I immediately called my Mom, and when she pulled back the sheets on the bed next to her (there were two beds), hundreds of fleas were clearly visible and jumping around.  While the hotel immediately relocated her to another room that night, we heard excuse after excuse on how the previous person using the room must have "snuck their pet in."  It was clear to me for a flea infestation that bad, housekeeping and management clearly did not do their due diligence in inspecting the cleanliness of the room afterwards regardless of someone bringing in a pet.  My Mother was covered in flea bites, I had numerous bites from the five minutes I was in the room, and we had to try to separate and sanitize everything before leaving the hotel (I cut our stay short of course and hotels.com refunded the extra days I had booked).  The manager of the hotel first offered to give us additional nights free on our next stay, but I told him that after this experience, I wasn't interested in returning.  He then offered to reimburse us for the one night my Mom spent in the room, but I strongly felt after the number of bites and disgusting conditions, that he should refund the entire two night amount even though we left early.  He argued with me about being "reasonable" until I communicated to him that I expected him to pay for extermination services in my home for the fleas I may have carried with me as well as the suffering we endured due to the filthy condition of his hotel (which I felt was reasonable).  Fleas also carry all sorts of diseases such as bubonic plague bacteria (yes, it still exists).  It was only then that he refunded the two nights.  Needless to say, I'll never go there again and would strongly caution anyone considering this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>My Mom, husband, and I booked our stay at Townplace Suites Dallas Desoto.  My Mom stayed in room 209 while my husband and I stayed in another room.  Little did we know that the first two floors are "pet friendly."  I went into her room to drop off her luggage and was in there a total of five minutes.  Later on the next day, I found a flea crawling on my newborn baby's head.  I thought it may have jumped on one of us when we walked in the elevator, etc.  My ankles and feet started itching like crazy.  I immediately called my Mom, and when she pulled back the sheets on the bed next to her (there were two beds), hundreds of fleas were clearly visible and jumping around.  While the hotel immediately relocated her to another room that night, we heard excuse after excuse on how the previous person using the room must have "snuck their pet in."  It was clear to me for a flea infestation that bad, housekeeping and management clearly did not do their due diligence in inspecting the cleanliness of the room afterwards regardless of someone bringing in a pet.  My Mother was covered in flea bites, I had numerous bites from the five minutes I was in the room, and we had to try to separate and sanitize everything before leaving the hotel (I cut our stay short of course and hotels.com refunded...My Mom, husband, and I booked our stay at Townplace Suites Dallas Desoto.  My Mom stayed in room 209 while my husband and I stayed in another room.  Little did we know that the first two floors are "pet friendly."  I went into her room to drop off her luggage and was in there a total of five minutes.  Later on the next day, I found a flea crawling on my newborn baby's head.  I thought it may have jumped on one of us when we walked in the elevator, etc.  My ankles and feet started itching like crazy.  I immediately called my Mom, and when she pulled back the sheets on the bed next to her (there were two beds), hundreds of fleas were clearly visible and jumping around.  While the hotel immediately relocated her to another room that night, we heard excuse after excuse on how the previous person using the room must have "snuck their pet in."  It was clear to me for a flea infestation that bad, housekeeping and management clearly did not do their due diligence in inspecting the cleanliness of the room afterwards regardless of someone bringing in a pet.  My Mother was covered in flea bites, I had numerous bites from the five minutes I was in the room, and we had to try to separate and sanitize everything before leaving the hotel (I cut our stay short of course and hotels.com refunded the extra days I had booked).  The manager of the hotel first offered to give us additional nights free on our next stay, but I told him that after this experience, I wasn't interested in returning.  He then offered to reimburse us for the one night my Mom spent in the room, but I strongly felt after the number of bites and disgusting conditions, that he should refund the entire two night amount even though we left early.  He argued with me about being "reasonable" until I communicated to him that I expected him to pay for extermination services in my home for the fleas I may have carried with me as well as the suffering we endured due to the filthy condition of his hotel (which I felt was reasonable).  Fleas also carry all sorts of diseases such as bubonic plague bacteria (yes, it still exists).  It was only then that he refunded the two nights.  Needless to say, I'll never go there again and would strongly caution anyone considering this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r141315545-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>141315545</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Pleasant place to stay</t>
+  </si>
+  <si>
+    <t>We selected this hotel while traveling across country because we were using our Marriott reward points.  We've never stayed in a TownePlace Suite that wasn't nice and this one was the same.  The staff was pleasant and addressed any questions without a problem.  The indoor pool was refreshing.  The breakfast was more than enough.  There was a family staying there that had lost their home to a fire and the husband was recovering from injuries.  The staff treated them like family.  So nice to see caring employees.  Would stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r134065468-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>134065468</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Good not great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are nice has a nice kitchen area and appliances. Bed is adequate not great. Tv channel selection not horrible but not the best. Wifi is POOR has a weak signal and slow speeds especially at peak times. Only true complaints I have about the rooms are that the A/C does not go below 67 and that the sound insulation is AWFUL. I hear every step of the person above me as well as every conversation in the hallway. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r133355358-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>133355358</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Dont request extra towels or a late check out</t>
+  </si>
+  <si>
+    <t>I was really excited about this property since its new. The pool area is fun, the front desk staff and breakfast was great. However housekeeping was rude.They treat their guest as if everyone is going to steal. To get a extra towel the housekeeping must take inventory of your current towels. Even if you request extra towels in your reservation. Housekeeping made me bring her my dirty towels and she threw them on the floor and counted them in front of me. Dont request a late check out becasue again housekeeping will constanly bang on your door to say you must pay to extend your stay even if you requested a late check out. I complained to the front desk, emailed the manager but I had to call on Tuesday to get a reservation. This is a good palce to stay if you bring your own towels and dont request a late check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I was really excited about this property since its new. The pool area is fun, the front desk staff and breakfast was great. However housekeeping was rude.They treat their guest as if everyone is going to steal. To get a extra towel the housekeeping must take inventory of your current towels. Even if you request extra towels in your reservation. Housekeeping made me bring her my dirty towels and she threw them on the floor and counted them in front of me. Dont request a late check out becasue again housekeeping will constanly bang on your door to say you must pay to extend your stay even if you requested a late check out. I complained to the front desk, emailed the manager but I had to call on Tuesday to get a reservation. This is a good palce to stay if you bring your own towels and dont request a late check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r129921977-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>129921977</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Love It!</t>
+  </si>
+  <si>
+    <t>I have a stayed at this hotel couple times and each time I loved it. The customer service here is excellent and the staff is very friendly. The rooms are clean and I did not have a problem with my room not being cleaned. The young lady at the front desk (Natasha) made sure that my stay at this hotel is a pleasant stay! I will continue to come back.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r129817422-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>129817422</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>Heaven is a place on earth</t>
+  </si>
+  <si>
+    <t>O a recent unexpected trip to Dallas, I found myself with not a reservation to a hotel and a young lady at Methodist Hospital referred me to Towne Place Suites in DeSoto, Texas. 
+Upon entering the lobby, I was taken by surprise that the housekeeping lady greeted me with a great smile and a chipper good morning. Something unheard of with a housekeeping crew in any hotel. Another plus was the freshness of the lobby, clean fresh crisp fragrance, not a must lysol smell, biig huge plus.
+As I proceeded to the front desk, I was greeted with an even bigger infectious smile by a young lady named Natasha, who by the name tag was the front desk supervisor. Effecient, informative and extremely helpful. Every front desk associate at any hotel should be as giving as she was.
+As I entered my room I was taken aback by the enormity of our room, spacious and comfortable, plenty of towels and the kitchen, goodness gracious I didn't have to ask for a thing while staying here, good concept, good planning and fresh smelling, housekeeping team rocks this hotel to the Nth degree.
+I stayed for 3 nights, and on one evening I came in and the gentleman who was working the desk said good afternoon and asked how my day had been going, I was astounded for I had never been asked that before. I asked him to refer some restaurants...O a recent unexpected trip to Dallas, I found myself with not a reservation to a hotel and a young lady at Methodist Hospital referred me to Towne Place Suites in DeSoto, Texas. Upon entering the lobby, I was taken by surprise that the housekeeping lady greeted me with a great smile and a chipper good morning. Something unheard of with a housekeeping crew in any hotel. Another plus was the freshness of the lobby, clean fresh crisp fragrance, not a must lysol smell, biig huge plus.As I proceeded to the front desk, I was greeted with an even bigger infectious smile by a young lady named Natasha, who by the name tag was the front desk supervisor. Effecient, informative and extremely helpful. Every front desk associate at any hotel should be as giving as she was.As I entered my room I was taken aback by the enormity of our room, spacious and comfortable, plenty of towels and the kitchen, goodness gracious I didn't have to ask for a thing while staying here, good concept, good planning and fresh smelling, housekeeping team rocks this hotel to the Nth degree.I stayed for 3 nights, and on one evening I came in and the gentleman who was working the desk said good afternoon and asked how my day had been going, I was astounded for I had never been asked that before. I asked him to refer some restaurants close by or some that delivered, and graciously referred me to Romas and the Greek Salad. I remember his name as Richard and was so glad the salad was referred to me that I ordered 2 more the following days there, thanks Richard.I was trying not to have a reason for complaining, minor as it may be, a complaint is a complaint nonetheless. As I went to have my seat at breakfast, the breakfast attendant said good morning in a rehearsed tone made it seem like she was a greeter for Walmart. As I came to the desk to checkout by Natasha, this woman seemed like her knowledge of the front desk were questions on Jeopardy, answering my questions as if I had asked her, poor woman, she seems like she lacks attention.My departure was pleasing and inviting, making me want to stay here again, gracious hospitality and impecible service. I was told that Scott was the GM, Mr. Scott, you have an awesome professional team at this awesome TPS!!Keep it up!MoreShow less</t>
+  </si>
+  <si>
+    <t>O a recent unexpected trip to Dallas, I found myself with not a reservation to a hotel and a young lady at Methodist Hospital referred me to Towne Place Suites in DeSoto, Texas. 
+Upon entering the lobby, I was taken by surprise that the housekeeping lady greeted me with a great smile and a chipper good morning. Something unheard of with a housekeeping crew in any hotel. Another plus was the freshness of the lobby, clean fresh crisp fragrance, not a must lysol smell, biig huge plus.
+As I proceeded to the front desk, I was greeted with an even bigger infectious smile by a young lady named Natasha, who by the name tag was the front desk supervisor. Effecient, informative and extremely helpful. Every front desk associate at any hotel should be as giving as she was.
+As I entered my room I was taken aback by the enormity of our room, spacious and comfortable, plenty of towels and the kitchen, goodness gracious I didn't have to ask for a thing while staying here, good concept, good planning and fresh smelling, housekeeping team rocks this hotel to the Nth degree.
+I stayed for 3 nights, and on one evening I came in and the gentleman who was working the desk said good afternoon and asked how my day had been going, I was astounded for I had never been asked that before. I asked him to refer some restaurants...O a recent unexpected trip to Dallas, I found myself with not a reservation to a hotel and a young lady at Methodist Hospital referred me to Towne Place Suites in DeSoto, Texas. Upon entering the lobby, I was taken by surprise that the housekeeping lady greeted me with a great smile and a chipper good morning. Something unheard of with a housekeeping crew in any hotel. Another plus was the freshness of the lobby, clean fresh crisp fragrance, not a must lysol smell, biig huge plus.As I proceeded to the front desk, I was greeted with an even bigger infectious smile by a young lady named Natasha, who by the name tag was the front desk supervisor. Effecient, informative and extremely helpful. Every front desk associate at any hotel should be as giving as she was.As I entered my room I was taken aback by the enormity of our room, spacious and comfortable, plenty of towels and the kitchen, goodness gracious I didn't have to ask for a thing while staying here, good concept, good planning and fresh smelling, housekeeping team rocks this hotel to the Nth degree.I stayed for 3 nights, and on one evening I came in and the gentleman who was working the desk said good afternoon and asked how my day had been going, I was astounded for I had never been asked that before. I asked him to refer some restaurants close by or some that delivered, and graciously referred me to Romas and the Greek Salad. I remember his name as Richard and was so glad the salad was referred to me that I ordered 2 more the following days there, thanks Richard.I was trying not to have a reason for complaining, minor as it may be, a complaint is a complaint nonetheless. As I went to have my seat at breakfast, the breakfast attendant said good morning in a rehearsed tone made it seem like she was a greeter for Walmart. As I came to the desk to checkout by Natasha, this woman seemed like her knowledge of the front desk were questions on Jeopardy, answering my questions as if I had asked her, poor woman, she seems like she lacks attention.My departure was pleasing and inviting, making me want to stay here again, gracious hospitality and impecible service. I was told that Scott was the GM, Mr. Scott, you have an awesome professional team at this awesome TPS!!Keep it up!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r129713825-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>129713825</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>:-)</t>
+  </si>
+  <si>
+    <t>I stay here every time I'm in Dallas! Great customer service, clean rooms, and excellent breakfast. I will be back!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r125294258-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>125294258</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>We lost our home...</t>
+  </si>
+  <si>
+    <t>Had to stay in a suite here for a substantial amount of time. Never being in a chatostrophic situation like this we did not know what to expect. We lived here for two months a family of four, inlcudes teenagers, they even enjoyed the stay. It may us aware of the qualities the hotel offers and definitely made it a choice hotel to tell family and friends about.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r122781586-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>122781586</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Two thumbs way up</t>
+  </si>
+  <si>
+    <t>Front desk very friendly, helped with directions over the phone (make sure to punch 999 , Barrymore Lane, Duncanville as the GPS will not show the DeSoto address). Room was huge, clean, two tv sets, kitchen, all you really need for a long stay, even though I only spent one night there.Nice free breakfast in the morning. Excellent location too, easy on off freeway.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r122630068-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>122630068</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>Great place, wonderful staff!</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel.  We were there for a little over two weeks. Rooms are nice and comfortable, the breakfast was both plentiful and delicous, and having the full kitchen was delightful.  But one of the very best things about the hotel was the personable and very helpful staff. It was our first time in Texas, and they made us feel very welcome.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r120179724-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>120179724</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>unbelievably  beautifully clean &amp; FANCY</t>
+  </si>
+  <si>
+    <t>We thought we won the lottery when we got a double queen room, but when we walked in, our jaws dropped. A kitchen with a full sized fridge, micro, sink, dishes, etc...the works!It was a shame we only got to stay 2 nights.  The senior discount made it affordable with ID, and the breakfast was VERY nice:  They had an employee dedicated to cleaning and restocking the breakfast area, not just a front desk clerk.  The staff was extremely welcoming and helpful the entire weekend.  They even found an employee to help us load our luggage in  the car when all the baggage racks were in use. THAT'S above and beyond customer service with a smile!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>We thought we won the lottery when we got a double queen room, but when we walked in, our jaws dropped. A kitchen with a full sized fridge, micro, sink, dishes, etc...the works!It was a shame we only got to stay 2 nights.  The senior discount made it affordable with ID, and the breakfast was VERY nice:  They had an employee dedicated to cleaning and restocking the breakfast area, not just a front desk clerk.  The staff was extremely welcoming and helpful the entire weekend.  They even found an employee to help us load our luggage in  the car when all the baggage racks were in use. THAT'S above and beyond customer service with a smile!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r120109742-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>120109742</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Very welcoming for first time in TX</t>
+  </si>
+  <si>
+    <t>I was very impressed. It was my first time in TX for my brother's wedding and this is the hotel our friends and family stayed at. The hotel has a modern and new feeling. The rooms are comfortable, welcoming, and with all the kitchen amenities.  The staff exceeded expectations, going out of their way to make special accommodations for the wedding party.  They also knew the area well (often given directions) and gave great restaurant recommendations.  I would recommend this hotel for business travelers and families alike- it has it all!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r119846805-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>119846805</t>
+  </si>
+  <si>
+    <t>10/28/2011</t>
+  </si>
+  <si>
+    <t>Wish I could have stayed longer</t>
+  </si>
+  <si>
+    <t>Excellent hotel for the price.  Full kitchen, spacious room, clean, VERY comfortable.  Parking lot looked full, but did not hear any noise from other guests in my room.  Breakfast was satisfactory.  Good location.  Noticed on guest directory $100 charge for pets.  Not sure if this is a common practice in hotels, but I was a little surprised it's a flat rate and not a deposit of some kind to bring a pet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r118902323-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>118902323</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for the weekend to visit the State Fair of Texas.  Our room was a king studio suite.  Our friends had the two bedroom suite which was really nice.  It was so nice to have a refrigerator, microwave, stove and all the other amenities.  The kitchen was fully equipped even had a toaster!  The room was very clean and the a/c worked great.  The beds were comfortable and the linins were nice.  The bathroom is pretty small but the closet was huge, which was nice to store all our stuff in.  There was a young gentleman working the front desk most of our stay and he was very helpful and so nice to us every time we had a question or was just walking by.  The continental breakfast was good too.  They had Texas shaped waffles and the other usual stuff.  We would stay again and can’t wait to go back to the state fair!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for the weekend to visit the State Fair of Texas.  Our room was a king studio suite.  Our friends had the two bedroom suite which was really nice.  It was so nice to have a refrigerator, microwave, stove and all the other amenities.  The kitchen was fully equipped even had a toaster!  The room was very clean and the a/c worked great.  The beds were comfortable and the linins were nice.  The bathroom is pretty small but the closet was huge, which was nice to store all our stuff in.  There was a young gentleman working the front desk most of our stay and he was very helpful and so nice to us every time we had a question or was just walking by.  The continental breakfast was good too.  They had Texas shaped waffles and the other usual stuff.  We would stay again and can’t wait to go back to the state fair!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r118548389-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>118548389</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>O K stay.</t>
+  </si>
+  <si>
+    <t>All the staff I encountered during our 1 night stay were nice.  Our room was starting to look a little weathered for such a new hotel but we had no problems during  our short time there. We've stayed at lots of Townplace Suites all over the US and pretty well know what to expect. Townplace Suites are a good value for the price.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r117049512-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>117049512</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>My hotel visit was awful!!</t>
+  </si>
+  <si>
+    <t>I will never come back to this hotel!!. I booked this hotel for 12 days. I took a simple complaint to the manger in regards to the swimming pool being cold and it turned my hotel visit to a nightmare!! I was locked out my room in retaliation. We was harrassed thereafter &amp; still being harassed after we booked out. After speaking with several of guest, they feel this isn't a hotel of choice!!! The staff was very rude. The indoor pool isn't pleasant at all!!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r109402816-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>109402816</t>
+  </si>
+  <si>
+    <t>05/22/2011</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>King bed room had lots of space and a comfy bed with plenty of pillows.  The full kitchen is a bonus and was very clean.  Room looks quite new with a large flat-screen TV.  Very friendly staff at both checkin and checkout time.  Only slightly disappointing thing was breakfast - mostly carbs (cereal, waffles, bagels, muffins and the like).  The only fresh fruit available was apples.  They did have Texas-shaped make-it-yourself waffles though if you're into novelty.  All in all a great stay (and at a great price too).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Bobby F, Manager at TownePlace Suites Dallas DeSoto, responded to this reviewResponded September 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2011</t>
+  </si>
+  <si>
+    <t>King bed room had lots of space and a comfy bed with plenty of pillows.  The full kitchen is a bonus and was very clean.  Room looks quite new with a large flat-screen TV.  Very friendly staff at both checkin and checkout time.  Only slightly disappointing thing was breakfast - mostly carbs (cereal, waffles, bagels, muffins and the like).  The only fresh fruit available was apples.  They did have Texas-shaped make-it-yourself waffles though if you're into novelty.  All in all a great stay (and at a great price too).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r108646221-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>108646221</t>
+  </si>
+  <si>
+    <t>05/17/2011</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>Everyone at the Townplace Suites Marriott were wonderful. They went above and beyond to make not only my stay but our entire groups stay outstanding during our Conference.  My special thanks to: Scott, Natasha and Joyce.  I remember these names, but they are not the only ones who made an impression on me.  Thank you again, and if I am ever in the area for personal time I will make sure I stay with you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everyone at the Townplace Suites Marriott were wonderful. They went above and beyond to make not only my stay but our entire groups stay outstanding during our Conference.  My special thanks to: Scott, Natasha and Joyce.  I remember these names, but they are not the only ones who made an impression on me.  Thank you again, and if I am ever in the area for personal time I will make sure I stay with you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r108621002-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>108621002</t>
+  </si>
+  <si>
+    <t>Outstanding customer service will have you returning again and again.</t>
+  </si>
+  <si>
+    <t>The rooms were comfortable but were no frills. The staff was outstanding! I would have to say it was some of the best customer service I have ever received.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101478127-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>101478127</t>
+  </si>
+  <si>
+    <t>03/25/2011</t>
+  </si>
+  <si>
+    <t>The staff Scott and Jayanthony went out of their way to welcome me.</t>
+  </si>
+  <si>
+    <t>My wife and I came in on the day after Superbowl Sunday, I beleive it was one the busiest days for the staff of the year. We were upgraded  with no problems due to the shortage of clean rooms. Thanks</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101461948-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>101461948</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>A place that feels like home!</t>
+  </si>
+  <si>
+    <t>We are staying at the TownePlace Suites Marriott Dallas/Desoto Texas. We are very, very pleased with the service that we have received. This hotel has everything you need from the perfect room to the tasty breakfast in the morning. It's not too many hotels that you can go to and feel  at home. The rooms are very nice and spacious. Some rooms are a two bedroom like an apartment with kitchen, and all the amenities . The Staff is very helpful and friendly at all times. Anything you need that the hotel can provide they will make it their business to get it done. I highly recommend this hotel to anyone weather it's just over night, the weekend or extended stay. This hotel is the perfect space for you and your love one's. It is surely a place that you could call home.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are staying at the TownePlace Suites Marriott Dallas/Desoto Texas. We are very, very pleased with the service that we have received. This hotel has everything you need from the perfect room to the tasty breakfast in the morning. It's not too many hotels that you can go to and feel  at home. The rooms are very nice and spacious. Some rooms are a two bedroom like an apartment with kitchen, and all the amenities . The Staff is very helpful and friendly at all times. Anything you need that the hotel can provide they will make it their business to get it done. I highly recommend this hotel to anyone weather it's just over night, the weekend or extended stay. This hotel is the perfect space for you and your love one's. It is surely a place that you could call home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101434487-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>101434487</t>
+  </si>
+  <si>
+    <t>The stay was just ordinary.</t>
+  </si>
+  <si>
+    <t>This was not my expectation of staying at a TownePlace Suites. I specifically chose this hotel (besides being a Marriott Rewards member), because of the comfort and surroundings from stays at other locations. This was a little disappointing. The area was kind of isolated and by itself and the surroundings looked blah. Reception in the room for my laptop was poor and the same for my Verizon cell phone. I literally had to hug the window to maintain a decent reception and once went outside to communicate. The night/evening receptionist/manager was very pleasant and enjoyable.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101298154-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>101298154</t>
+  </si>
+  <si>
+    <t>03/23/2011</t>
+  </si>
+  <si>
+    <t>Wonderful property for a special event</t>
+  </si>
+  <si>
+    <t>We reserved the banquet room for my daughters Sweet 16 party. From the moment we arrived the hotel staff was very attentive and accommodating. The room was large enough for us to have a DJ, party lighting, several large tables for seating, a buffet and beverage serving area, and gift table. There was plenty of parking for guests and with the location of the banquet room we did not have an issue with uninvited guests. The property was very modern and clean. The hotel rooms are spacious and the perfect space for a family; kitchenette, large TV, comfortable beds, a nice sized closet for our luggage and clothes, and a full size refrigerator. The complimentary breakfast was full of variety and there was something to please everyone. This property is perfect for business meetings or leisurely parties and is located very close to many, many things Dallas has to offer. The hotel is pet friendly so we were also able to have our dog with us. We will definitely stay again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>We reserved the banquet room for my daughters Sweet 16 party. From the moment we arrived the hotel staff was very attentive and accommodating. The room was large enough for us to have a DJ, party lighting, several large tables for seating, a buffet and beverage serving area, and gift table. There was plenty of parking for guests and with the location of the banquet room we did not have an issue with uninvited guests. The property was very modern and clean. The hotel rooms are spacious and the perfect space for a family; kitchenette, large TV, comfortable beds, a nice sized closet for our luggage and clothes, and a full size refrigerator. The complimentary breakfast was full of variety and there was something to please everyone. This property is perfect for business meetings or leisurely parties and is located very close to many, many things Dallas has to offer. The hotel is pet friendly so we were also able to have our dog with us. We will definitely stay again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r85061642-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>85061642</t>
+  </si>
+  <si>
+    <t>10/27/2010</t>
+  </si>
+  <si>
+    <t>Not fancy, but not expensive - fits the bill.</t>
+  </si>
+  <si>
+    <t>We selected this hotel because it was close to where we wanted to be (Cedar Hill State Park) and a Marriott-owned facility (for the reward points).  Receptionist was the most jovial and welcoming person I think I've ever met.  Very talkative and helpful.  Rooms were certainly adequate for the price, with modern fixtures and Ikea-like furniture.  Everything was impeccably clean as expected.  The only downside was that our A/C was broken (due to a lightning strike minutes before we arrived), but we were promptly moved to a larger room with working A/C.  Was not able to try the breakfast since it started at 7am - after I had left.  Would recommend if you're looking for somewhere decent but not fancy, and affordable.  P.S. Marriott website says the WiFi is not free, but it actually is!  I experienced about 2Mbps/1Mbps speeds.  Nice bonus.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>We selected this hotel because it was close to where we wanted to be (Cedar Hill State Park) and a Marriott-owned facility (for the reward points).  Receptionist was the most jovial and welcoming person I think I've ever met.  Very talkative and helpful.  Rooms were certainly adequate for the price, with modern fixtures and Ikea-like furniture.  Everything was impeccably clean as expected.  The only downside was that our A/C was broken (due to a lightning strike minutes before we arrived), but we were promptly moved to a larger room with working A/C.  Was not able to try the breakfast since it started at 7am - after I had left.  Would recommend if you're looking for somewhere decent but not fancy, and affordable.  P.S. Marriott website says the WiFi is not free, but it actually is!  I experienced about 2Mbps/1Mbps speeds.  Nice bonus.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2227,4834 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>110</v>
+      </c>
+      <c r="X13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>169</v>
+      </c>
+      <c r="X22" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>222</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>169</v>
+      </c>
+      <c r="X24" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>169</v>
+      </c>
+      <c r="X25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>169</v>
+      </c>
+      <c r="X26" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>192</v>
+      </c>
+      <c r="X27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>169</v>
+      </c>
+      <c r="X28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>265</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>256</v>
+      </c>
+      <c r="X30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>256</v>
+      </c>
+      <c r="X31" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>256</v>
+      </c>
+      <c r="X32" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>256</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>169</v>
+      </c>
+      <c r="X34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>169</v>
+      </c>
+      <c r="X35" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>169</v>
+      </c>
+      <c r="X36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>169</v>
+      </c>
+      <c r="X37" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>318</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>169</v>
+      </c>
+      <c r="X38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s">
+        <v>330</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>169</v>
+      </c>
+      <c r="X40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" t="s">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s">
+        <v>337</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K43" t="s">
+        <v>348</v>
+      </c>
+      <c r="L43" t="s">
+        <v>349</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>353</v>
+      </c>
+      <c r="J44" t="s">
+        <v>354</v>
+      </c>
+      <c r="K44" t="s">
+        <v>355</v>
+      </c>
+      <c r="L44" t="s">
+        <v>356</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>357</v>
+      </c>
+      <c r="O44" t="s">
+        <v>265</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>358</v>
+      </c>
+      <c r="X44" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" t="s">
+        <v>364</v>
+      </c>
+      <c r="L45" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s">
+        <v>374</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>367</v>
+      </c>
+      <c r="X46" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>381</v>
+      </c>
+      <c r="O47" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>382</v>
+      </c>
+      <c r="X47" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" t="s">
+        <v>387</v>
+      </c>
+      <c r="K48" t="s">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>390</v>
+      </c>
+      <c r="O48" t="s">
+        <v>101</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J49" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" t="s">
+        <v>395</v>
+      </c>
+      <c r="L49" t="s">
+        <v>396</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>390</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>398</v>
+      </c>
+      <c r="J50" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s">
+        <v>400</v>
+      </c>
+      <c r="L50" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>402</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>404</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>405</v>
+      </c>
+      <c r="J51" t="s">
+        <v>406</v>
+      </c>
+      <c r="K51" t="s">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s">
+        <v>408</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>409</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>412</v>
+      </c>
+      <c r="J52" t="s">
+        <v>413</v>
+      </c>
+      <c r="K52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L52" t="s">
+        <v>415</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>416</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>418</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>419</v>
+      </c>
+      <c r="J53" t="s">
+        <v>420</v>
+      </c>
+      <c r="K53" t="s">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s">
+        <v>422</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s">
+        <v>162</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54" t="s">
+        <v>426</v>
+      </c>
+      <c r="K54" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>430</v>
+      </c>
+      <c r="J55" t="s">
+        <v>431</v>
+      </c>
+      <c r="K55" t="s">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s">
+        <v>433</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>434</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>436</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>437</v>
+      </c>
+      <c r="J56" t="s">
+        <v>438</v>
+      </c>
+      <c r="K56" t="s">
+        <v>439</v>
+      </c>
+      <c r="L56" t="s">
+        <v>440</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>441</v>
+      </c>
+      <c r="O56" t="s">
+        <v>265</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>423</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>449</v>
+      </c>
+      <c r="J58" t="s">
+        <v>450</v>
+      </c>
+      <c r="K58" t="s">
+        <v>451</v>
+      </c>
+      <c r="L58" t="s">
+        <v>452</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>455</v>
+      </c>
+      <c r="J59" t="s">
+        <v>456</v>
+      </c>
+      <c r="K59" t="s">
+        <v>457</v>
+      </c>
+      <c r="L59" t="s">
+        <v>458</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>459</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>460</v>
+      </c>
+      <c r="J60" t="s">
+        <v>461</v>
+      </c>
+      <c r="K60" t="s">
+        <v>462</v>
+      </c>
+      <c r="L60" t="s">
+        <v>463</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>464</v>
+      </c>
+      <c r="O60" t="s">
+        <v>265</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>465</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" t="s">
+        <v>467</v>
+      </c>
+      <c r="K61" t="s">
+        <v>468</v>
+      </c>
+      <c r="L61" t="s">
+        <v>469</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>470</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>471</v>
+      </c>
+      <c r="J62" t="s">
+        <v>472</v>
+      </c>
+      <c r="K62" t="s">
+        <v>473</v>
+      </c>
+      <c r="L62" t="s">
+        <v>474</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>475</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>477</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>478</v>
+      </c>
+      <c r="J63" t="s">
+        <v>479</v>
+      </c>
+      <c r="K63" t="s">
+        <v>480</v>
+      </c>
+      <c r="L63" t="s">
+        <v>481</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>475</v>
+      </c>
+      <c r="O63" t="s">
+        <v>222</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" t="s">
+        <v>485</v>
+      </c>
+      <c r="L64" t="s">
+        <v>486</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>475</v>
+      </c>
+      <c r="O64" t="s">
+        <v>222</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>487</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>488</v>
+      </c>
+      <c r="J65" t="s">
+        <v>489</v>
+      </c>
+      <c r="K65" t="s">
+        <v>490</v>
+      </c>
+      <c r="L65" t="s">
+        <v>491</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>475</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>493</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>494</v>
+      </c>
+      <c r="J66" t="s">
+        <v>495</v>
+      </c>
+      <c r="K66" t="s">
+        <v>496</v>
+      </c>
+      <c r="L66" t="s">
+        <v>497</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>498</v>
+      </c>
+      <c r="O66" t="s">
+        <v>101</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>499</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>500</v>
+      </c>
+      <c r="J67" t="s">
+        <v>501</v>
+      </c>
+      <c r="K67" t="s">
+        <v>502</v>
+      </c>
+      <c r="L67" t="s">
+        <v>503</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>504</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>505</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>506</v>
+      </c>
+      <c r="J68" t="s">
+        <v>507</v>
+      </c>
+      <c r="K68" t="s">
+        <v>508</v>
+      </c>
+      <c r="L68" t="s">
+        <v>509</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>510</v>
+      </c>
+      <c r="O68" t="s">
+        <v>265</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>511</v>
+      </c>
+      <c r="X68" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>514</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>515</v>
+      </c>
+      <c r="J69" t="s">
+        <v>516</v>
+      </c>
+      <c r="K69" t="s">
+        <v>517</v>
+      </c>
+      <c r="L69" t="s">
+        <v>518</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>511</v>
+      </c>
+      <c r="X69" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>521</v>
+      </c>
+      <c r="J70" t="s">
+        <v>516</v>
+      </c>
+      <c r="K70" t="s">
+        <v>522</v>
+      </c>
+      <c r="L70" t="s">
+        <v>523</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>510</v>
+      </c>
+      <c r="O70" t="s">
+        <v>101</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>524</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>525</v>
+      </c>
+      <c r="J71" t="s">
+        <v>526</v>
+      </c>
+      <c r="K71" t="s">
+        <v>527</v>
+      </c>
+      <c r="L71" t="s">
+        <v>528</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>529</v>
+      </c>
+      <c r="O71" t="s">
+        <v>101</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>530</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>531</v>
+      </c>
+      <c r="J72" t="s">
+        <v>532</v>
+      </c>
+      <c r="K72" t="s">
+        <v>533</v>
+      </c>
+      <c r="L72" t="s">
+        <v>534</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>536</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>537</v>
+      </c>
+      <c r="J73" t="s">
+        <v>532</v>
+      </c>
+      <c r="K73" t="s">
+        <v>538</v>
+      </c>
+      <c r="L73" t="s">
+        <v>539</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>540</v>
+      </c>
+      <c r="O73" t="s">
+        <v>101</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>541</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>542</v>
+      </c>
+      <c r="J74" t="s">
+        <v>543</v>
+      </c>
+      <c r="K74" t="s">
+        <v>544</v>
+      </c>
+      <c r="L74" t="s">
+        <v>545</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>546</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59704</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>548</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>549</v>
+      </c>
+      <c r="J75" t="s">
+        <v>550</v>
+      </c>
+      <c r="K75" t="s">
+        <v>551</v>
+      </c>
+      <c r="L75" t="s">
+        <v>552</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>553</v>
+      </c>
+      <c r="O75" t="s">
+        <v>162</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>554</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_759.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_759.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="628">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jadocz</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>As a Marriott Rewards customer who frequents Marriott hotels regularly, this hotel was average to sub par. Outside of the location to a venue we were attending, we were very disappointed. Upon entering our room, we found our heat to be "stuck" and locked. The room was extremely hot. When trying to call the front desk to let them know, we found our phone didn't work. Upon calling on our cell phone and making a trip downstairs, the front desk "unlocked" our air from downstairs. The elevators are also located next door to the hotel rooms, which creates traffic at all times. These are fairly small rooms, tiny bathrooms, with full kitchens. If you need to cook your own food and you have a party of one or two, this could work for you. There is a full size refrigerator as well. Upon entering the hotel, they make you sign a contract that you will not have a party in your room. This should have been an indication. There is a free breakfast in the morning-- simple, usual for a free breakfast (yogurt, waffles, cereal, and some sort of sausage). The indoor pool was closed on a Saturday too. If you travel with more than two or unless your children are small, like ours, I would recommend upgrading to the full suite. Overall, the location was good and the staff was attentive to the problems. Not bad but not great.More</t>
   </si>
   <si>
+    <t>Jon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r540761325-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Booked a 2-bedroom suite. Since this is a towneplace, that means it has 2 separate (ie real) bedrooms, and a common area, kitchen, and bathroom. This allowed us (2 adults, a toddler, and an infant) to all be comfortable while we were in town. Breakfast was hot and good. Rooms were clean and beds were a fine. I'd definitely recommend.Only negatives of our stay were check-in and utensils in the room.- I had been assured using chat in the marriott app that my check-in time would be honored, only to arrive well after that check-in with 2 very tired children and a room that still wasn't ready. There seemed to only be one check-in position which didn't help things.- My room had steak knives, pots, pans, and everything else you'd need for a meal... but no forks, spoons, or butter knives. I'm assuming they were taken by a previous guest, but when I asked the staff about them one night, I was told I may have to wait til the next morning when the kitchen was unlocked before I might get silverware. Staff was fortunately able to find some plasticware in the back office, but that should definitely not be an issue for an extended-stay property.Noise: Nothing unique to this hotel, but since it's in Texas and pretty new, the walls are paper-thin.More</t>
   </si>
   <si>
+    <t>Andrea C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r538082898-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Thank you for all you do.  My family always feels safe and welcome. I am truly grateful to call this place home .   The staff is very polite and friendly.  The room helper are awesome.  The kithchen staff and greeters makes sure there's always hot coffee when you need it    Keep up the good work. More</t>
   </si>
   <si>
+    <t>RL H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r506526241-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>I stayed there July 19th while attending an event at the Bob Knight Field House.  Very convenient. Easy access from freeway.  Rooms were clean and quiet. Perfect location if your attending tournaments held at the BKFH.   I'll remember to stay here again for the next tournament. More</t>
   </si>
   <si>
+    <t>Rafael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r504791843-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>The hotel needs a little renovations.  The room we stayed in had the threshold coming off between the bedroom and the bathroom.  Also the floor in the bathroom was coming apart also.  Other than that we had a great time there.  The young lafy in the evening with blond hair was very friendly.  She talked to both my daughters and made us feel welcome.More</t>
   </si>
   <si>
+    <t>mom2ginny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r490767372-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>In February, we made a reservation, and received a confirmation, for a two bedroom, handicapped accessible suite.  Imagine our disbelief when we arrived and we were given keys to a two bedroom suite.  When questioned the handicapped accessibility of the suite were told 1) we didn't  request handicapped accessible, 2) that they only had one handicapped accessible, two bed room suite and that it had been occupied for two months, and 3) we really didn't need a handicapped accessible room.  We 1) showed the email confirmation for the handicapped accessible suite, 2) asked why if the room had been occupied for two months why we weren't notified to make other arrangements, and 3) informed them that yes, we indeed needed a handicapped accessible room for the third member of our party who was waiting in the car.After some awkward silence, they offered to call around to other Marriott properties and try to find us an available room.  We checked Trip Advisor for reviews of the properties they offered.  The two properties had terrible reviews that stated the locations were unsafe.  The third hotel was not a place we would have chosen, but it would suffice. For all of our inconveniences, we were told that 20,000 points would be added to our Marriott Rewards account.   These points still have not been added to our account.  I seriously doubt that they will ever be added to our account.More</t>
   </si>
   <si>
+    <t>doggy7538</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r471091713-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>this has been the worse experience visiting a marriott. the one and only issue i had was with the alleged asst gm anna! rude is an understatement. attitude is an understatement. i had yvette who was nice calm me down because i was so upset with the way anna approaches and speaks to people  that are paying customers. ho is this even a marriott property?? they dont even deserve the brand name with someone working who doesnt display adequate customer service and substance. i would never recommend this hotel to any one. never!!!!!More</t>
   </si>
   <si>
+    <t>rdfx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r469910058-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>We stayed in a corner suite with a family of 7 and couldn't have been more comfortable.  The suite was lovely and clean, very nicely laid out.  The hotel itself is beautiful and feels very secure and quiet.  There is a covered patio out front with a nice bbq grill.  Parking is ample, breakfast was very good - loved the croissants!  Located in a nice area and close to restaurants, gas and highways.  We will be back.More</t>
   </si>
   <si>
+    <t>EmilySmith23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r469743614-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>I LOVE THIS HOTEL!! The staff is very friendly and very helpful! My room was very clean and they keep fresh coffee out 24/7 which was great. I like how the staff actually tried to get to know me which made my experience very personal. Yall are amazing! I will be back!More</t>
   </si>
   <si>
+    <t>charlesbuckley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r464907135-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>I love Mrs . Teresa, Mrs Anna ,Mrs Shirley, Mrs Jovita  for making me feel welcome during my stay.  The kitchen staff was great too. Always positive  even on busy weekend.  The food was great especially the Texas waffle.  Thank you  Desoto TownePlace Suites. Room 213 /Cokes family More</t>
   </si>
   <si>
+    <t>EnviroTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r461041807-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>Stayed here one night on a business trip. Room was comfortable, staff was friendly, and free breakfast was adequate.  Everything was clean, neat, and adequately modern.  I'd stay here again.  Recommendation for the hotel: add an electric car charging station.More</t>
   </si>
   <si>
+    <t>Stephanie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r435020653-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>The hotel is nice.  The staff is horrible! When I first got there, I was told there was a no party policy...ok cool! I wasn't throwing a party! I walked to my room with my 4 daughters  (6 people is allowed in a 2 bedroom suite) 10 minutes later,  someone from the front desk  knocked on my door accusing me of throwing a party. WELL I had only been there for 10 minutes. HOUSEKEEPING saw me bringing groceries up to my room (my room was equipped with a full kitchen)and went to complain on me. Then I pulled out the couch bed in the living room. The couch " appeared" to be broken. So I immediately called the front desk and reported it. Anthony came up to help with the couch.  He said apparently the previous guest broke the couch and that he was going to write up a report. Well, Once he got back to the front desk he called me and said if the supervisor don't have any knowledge of the couch being broken, then the hotel was going to charge me for the broken couch!!  And the worst part of it all is when the front desk lady (she's black) came to my room she states " everytime  our people  (black people) check in, they (Mexican) send me up here to confront them" This hotel WILL NEVER get my business again!!!More</t>
   </si>
   <si>
+    <t>yatahey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r432874620-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>Stayed at the hotel for one night only. Pros: good storage, lots of hot water, nice little kitchenette, convenient access to I35W. Cons: hotel rooms are worn, fixtures show rust or worse, paint could seriously use some refreshing, walls are thin so definitely take a room on the top floor so you don't here your neighbor above walking all night, pool noises echo down the first floor halls so avoid that level too. Checkin was slow and they didn't honor our room type selected. I wouldn't stay again. More</t>
   </si>
   <si>
+    <t>brandycamera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r432673940-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>Overall this hotel is pretty nice. The best part is Brenda the breakfast lady. She was very helpful and went out of her way to help the guest. I heard her offer to make a girls oatmeal for her. Even though she was not feeling her best today she went our of her way to make everyone comfortable and happy. Thanks, BrendaMore</t>
   </si>
   <si>
+    <t>Atldevilz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r396896491-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -534,6 +579,9 @@
     <t>Clean Hotel &amp; polite staff, however, the property's age is showing now. Do not expect anything out of the ordinary. I have stayed at other Towneplace hotels which were "renovated" that had a much more pleasant feel to them. This hotel does the job but I would not recommend to stay here with family unless you are really on a budget.More</t>
   </si>
   <si>
+    <t>Mrm2u2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r393377030-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>We stayed here 2 nights family of 4 and the hotel met our needs. Its always a plus to have a full size refrigerator and microwave which is great for storing a few items or warming. The rooms were clean and up to expectations for price. The set up is a bit awkward as you enter with the kitchenette counter inches from where the door opens and the bathroom door is about 3ft from the second bed. Other than that the hotel meets the requirements you need for a family and worked out just well. We stayed in room 313 and not problems during the stay.More</t>
   </si>
   <si>
+    <t>200nightsontheroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r391564461-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -576,6 +627,9 @@
     <t>We held a small conference and the rooms were great, the staff was awesome and the location was terrific. You can eat at many places - different types, price ranges, etc. within a few miles of the hotel. The rooms were reasonably priced and the staff was fabulous. 30 minutes south of the airport means that traffic here is a lot better than Dallas center. You are missing it if you don't try something here.More</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r370998096-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>Our overall experience was "Excellent" in the service provided for us by Shirley Spann, Adriean Smith, Darnell, Roslaind and Marvin. We were in Dallas for a wedding and thanks to our daughter she told us about this place and we agree everything, the room, the breakfast, place was clean in every aspect of the hotel.  I will let my family and friends know where to stay when they are in Dallas.  We were greeted with a warm welcome, gave us a review of the area, loved the extra's like the ice cream at night when we came is was just awesome.  Thanks to all of the staff just like family.  Linda and Neil from Myrtle Beach, SC stayed April 14th and left on the 17th. (great prices too)More</t>
   </si>
   <si>
+    <t>Davin D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r367564566-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>Staff is extremely friendly and this is a great place to stay when you visit the South Dallas area. This hotel is close to the freeway and plenty of things and restaurants in the area. Very convienent!More</t>
   </si>
   <si>
+    <t>Wendy816</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r354557527-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -648,6 +708,9 @@
     <t>Came with two others for girls trip from Kansas City. We are staying in a two bedroom suite that includes 1 bathroom and a full kitchen. Each bedroom has a TV and a custom closet system that is very nice for organizing your belongings on longer stays. The staff has been very accommodating and nice. There's a pool but no hot tub and a small workout area. Lots of shopping and restaurants in the area. Marriott never disappoints!!More</t>
   </si>
   <si>
+    <t>Maurice W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r350781829-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -669,6 +732,9 @@
     <t>Poorly maintained. Clutter in the hallways. Floors in the bathroom and kitchen showed impact of severe water damage. On the last day, the HVAC went crazy and pushed out all kind of heat. Had to turn it off and leave the window open (40° weather) to sleep.More</t>
   </si>
   <si>
+    <t>Speechmom1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r348485343-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -690,6 +756,9 @@
     <t>This hotel is easy to get to from the Interstate and near great shopping and dining. While I may not be spelling her name correctly, Adreana at the front desk was awesome! She went out of her way to make our stay pleasant. I would stay here again just for her!Also, Marvin helped with a television issue quickly and professionally. The staff we dealt with was very helpful (except for a new girl who didn't seem to know a lot yet) and kind. Sadly, too many hotels are losing helpful and cheerful front desk staff. I travel a lot so when I can find good front desk staff, I tend to return!The pool area isn't the cleanest but the rooms and work out area are nice and feel pretty clean.More</t>
   </si>
   <si>
+    <t>Camealle D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r348065543-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -708,6 +777,9 @@
     <t>The kitchen manager, Brenda Brown, was absolutely amazing during our stay here at this hotel. Not only did she make sure everyone was happy with the food provided for the continental breakfast, she also greeted every guest. Although our experience with the front desk was less than pleasurable when checking-in, the kitchen manager made our mornings there a wonderful experience. Ultimately, she could definitely teach the front desk a thing or two about customer service!More</t>
   </si>
   <si>
+    <t>Sharon R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r328603570-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -729,6 +801,9 @@
     <t>This is a nice property - newly remodeled and clean.  The best part of the stay is the hospitality we were shown by Brenda Brown.  She served breakfast every morning with a smile, went out of her way to get whatever anyone needed, but even better than that treated everyone as a friend!  Thank you Brenda for starting off our day in the most positive way!More</t>
   </si>
   <si>
+    <t>Charles1019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r326566332-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -750,6 +825,9 @@
     <t>The staff here were super friendly. The room was very comfortable and the breakfast area had enough seating in the morning. There are plenty of places to eat nearby but the big problem is you have to circle jerk to get to one of them Pappdaux's is right up the street which was where I ate. It was beyond packed and they allow smoking in the bar. Hate that!More</t>
   </si>
   <si>
+    <t>MinnesotaRandy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r321740005-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -769,6 +847,9 @@
   </si>
   <si>
     <t>We had a nice stay at this hotel.  The bed was very comfortable and the room was clean.  The breakfast was typical Town Place fare.   The desk staff were friendly.  The breakfast gal was extremely friendly and went out of her to talk to the people eating breakfast and said to let her know if there was anything she could help with.More</t>
+  </si>
+  <si>
+    <t>IFLY11</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r301503126-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
@@ -795,6 +876,9 @@
   <si>
     <t>As a flight attendant, recruiter, and customer service keynote speaker, I have stayed in Marriott hotels all over the world. I love Marriott and I never write negative reviews, but this place is terrible. When my colleagues and I were there in August there was a very poorly contained construction in progress, and the place was not just filthy but hazardous. Our reservation was for a suite that would sleep three people, but the sofa bed that was supposed to accomodate our third person was broken and wouldn't open, with a sharp metal piece sticking out. I asked if we could get a cot or rollaway bed for our third person, and was told that they didn't have any. We were told that we could be transferred to a one bedroom with a Queen bed. (Ummm… okay…..) I said that would actually make the problem worse, not better, as we needed to sleep three people. I asked if there was another suite available, and we were moved to a second suite. In this suite the sofa sleeper did open, but it was sunken in and moldy. The clerk at the front desk didn't believe me, (!!!) so I asked her to come with me and take a look. She said she couldn't leave becuase there was not another employee on the premises. What!? 
 I ended up paying for a second room for both nights on my Marriott Rewards Visa, thinking...As a flight attendant, recruiter, and customer service keynote speaker, I have stayed in Marriott hotels all over the world. I love Marriott and I never write negative reviews, but this place is terrible. When my colleagues and I were there in August there was a very poorly contained construction in progress, and the place was not just filthy but hazardous. Our reservation was for a suite that would sleep three people, but the sofa bed that was supposed to accomodate our third person was broken and wouldn't open, with a sharp metal piece sticking out. I asked if we could get a cot or rollaway bed for our third person, and was told that they didn't have any. We were told that we could be transferred to a one bedroom with a Queen bed. (Ummm… okay…..) I said that would actually make the problem worse, not better, as we needed to sleep three people. I asked if there was another suite available, and we were moved to a second suite. In this suite the sofa sleeper did open, but it was sunken in and moldy. The clerk at the front desk didn't believe me, (!!!) so I asked her to come with me and take a look. She said she couldn't leave becuase there was not another employee on the premises. What!? I ended up paying for a second room for both nights on my Marriott Rewards Visa, thinking Marriott Rewards would honor my reservation by taking care of these charges. After wasting countless hours of my life trying to get this amount refunded, I was finally granted a partial refund for the second room. The general manager, whom I'm not sure even understood the problem, acted as if she was doing me a huge favor. This was an incredibly frustrating experience.I also have to second the other reviews citing the noise problems and the criminal element in and around this hotel. I did not feel safe there at night.More</t>
+  </si>
+  <si>
+    <t>sistahgirl2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r294495573-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
@@ -829,6 +913,9 @@
  NOW I'LL BE OUT OF AN UNEXPECTED EXPENSE FOR THIS DENTAL REPAIR!  I've owned this partial mouth piece almost 2 yrs; and now I'm unable to wear it (covered 4 missing teeth)- enhancing my beautiful smile!...Location:  2700 Travis St. , DeSoto, TX 75115I stayed @ this hotel for 10 days [6/29/15 - 7/9/15]. I agree with others on the good breakfast &amp; housekeeping services. Staff was professional overall.  I ONLY have 1-COMPLAINT!  Didn't realize that leaving my 'partial mouth piece with small gold tooth' would be STOLEN while out of my room a short period of time.    Yes I read their hotel rules about protecting your valuables.  But I did as usual taking my mouth piece out to soak in a cup of water in the bathroom.  Brought this matter to the General Manager's attention &amp; showed her the damage of where someone had 'broken' off the 'gold tooth' from my mouth piece. GM stated she saw nothing on her camera to suggest anyone had entered my room #204 committing this Crime!  There was a 2nd camera near outside of my door; and also another camera inside my room placed in middle of ceiling overlooking the foot of bed that would view any activity in the room @ all times!No compensation has been made to repair &amp; replace the missing gold tooth! ONLY a requested Incident Report copy was given to me by a front-desk evening manager! NOW I'LL BE OUT OF AN UNEXPECTED EXPENSE FOR THIS DENTAL REPAIR!  I've owned this partial mouth piece almost 2 yrs; and now I'm unable to wear it (covered 4 missing teeth)- enhancing my beautiful smile! I was &amp; yet am very disappointed and frustrated about that incident!  Mind you now, that their hotel rooms can only be entered with a Key Card; which any Staff Employee can enter with a Master Key Card while you're gone from your room!More</t>
   </si>
   <si>
+    <t>Bartbark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r278706753-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -845,6 +932,9 @@
   </si>
   <si>
     <t>We usually stay at Towneplace or Residence Inn because we know they will be nice. The room (suite) was small and the only mirror was in the bathroom. The closet was also in the tiny bathroom. So it took a lot of logistics just for the 2 of us to get up and going.The breakfast was also a disappointment.No protein at all the first morning and I never located fruit.On the positive side, the staff couldn't have been nicer. Due to construction in the hotel, our a/c went out but it was fixed as soon as we reported it.I probably won't return. The area has many other options.More</t>
+  </si>
+  <si>
+    <t>adam_jean</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r250957357-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
@@ -872,6 +962,9 @@
 So I was going to be here for about 2-1/2 months however, after 1 week I am checking out and changing hotels. Paying $35/night more and a 50% longer drive but will be worth it. I typically stay 150+ nights in hotels and...Where do I start? Tough to get a good nights rest when car alarms go off during the night. The heart pounding bass in the car below my window would be great if I were at a concert. The woman's blood curling scream followed by the arrival of police, then an ambulance and seeing her walked out in handcuffs to the ambulance was my Friday morning wakeup at 4:30 am. The other guests were noisy most nights, even after 10:00 pm and often way before 6:00 am. In general there seems to be a lot of activity ALL the time in the parking lot and in the halls.  Rooms are fairly clean but show signs of wear. Bathroom sink and tub drains were slow, despite my mentioning it on day 2 of my stay it was never fixed. I was told at check-in that they (repair techs) were "working on the a/c" and offered a fan. Since then, and it is winter, I have had my window open and a fan running constantly. Can't imagine a summer in this hotel. Other reviews tell me this is a common problem. The constant "high pitch" sound didn't help either. So I was going to be here for about 2-1/2 months however, after 1 week I am checking out and changing hotels. Paying $35/night more and a 50% longer drive but will be worth it. I typically stay 150+ nights in hotels and this is definitely one of my worse experiences in a LONG time.More</t>
   </si>
   <si>
+    <t>Jack50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r248872502-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -890,6 +983,9 @@
     <t>Got 2 rooms to attend a wedding. Staff are friendly and go the extra mile! Clean hotel that's easy to find near a neighborhood will plenty of food and shopping within easy driving distance.  Bathrooms are okay and each room had a small kitchenette with everything I needed. Free breakfast in the mornin was adequate with eggs, sausage, and waffles and pancakes. It's a suites so there seems to be some long-term guests. Felt pretty safe once the noises in the hall quieted down.  The TV picture was kinda faulty until I "adjusted" it. I would stay here again. More</t>
   </si>
   <si>
+    <t>NerdyGirl08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r245862166-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1007,9 @@
     <t>I stayed in this hotel for a couple days in December while visiting family in the DFW area. It is fairly close to I-20 (just go up Cockrell Hill Rd or take FM 1382), which will take you to the Ft Worth area. There are also quite a few restaurants and a Winn-Co nearby, so definitely a convenient location. Room: The bed was very comfortable.  Felt like it was a memory foam topped mattress, which was great for my back.  The room was nicely appointed and had a kitchenette area along with a full size fridge &amp; dishwasher. I only wished that they would put dish soap in the kitchen to hand wash dishes instead of running the dishwasher for instances where there are only a few dishes to wash.The bathroom was a standard Marriott bathroom seen in most Towneplaces &amp; newer Residence Inns. It was sufficient for the stay. Breakfast:The breakfast wasn't too great. The eggs were too salty &amp; the waffles seemed a bit too dense as opposed to being light and fluffy.  Oatmeal &amp; grits were available, but only in instant packets. The coffee was ok, but a bit weak.Gym:Small yet sufficient for a decent cardio workout &amp; light weight training.Overall, decent hotel for business travel or family visit.More</t>
   </si>
   <si>
+    <t>Cynthia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r241905601-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1031,9 @@
     <t>This hotel was alright nothing to spectacular.  If you get the king studio and use the fold out couch you will have to crawl over the bed to get to one side which was annoying. The pillows and bed was comfy though. Unfortunately there was very little tissue in the bathroom and no extra so we had to use Kleenex.  If it's just one or two people this room may have worked better but we had our two kids with us so maybe that was the problem.  The check-in was ok I don't like that they hold $120 on my card for what he called incidentals I'm not sure what incidentals because there was no drinks or food or room service that we could have charged to the room.  Either way it's a decent hotel if you are looking a good nights sleep in that area.   And it was quiet.More</t>
   </si>
   <si>
+    <t>Richard D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r238273676-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1052,9 @@
     <t>This hotel is GREAT!1. It is reasonably priced2. It is very Clean3. The staf members are well trained and very friendly$. The hotel is located in a great place near major roads, good restaurants,gyms and shopping!I would highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>Josh O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r235383787-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1076,9 @@
     <t>We arrived this past Friday for a softball tournament that was going on that weekend near the vicinity. We were most please with the place. Check in went great..service desk clerk was very sweet and polite. We made our way up to the room and was taken aback on how big the room was. Nice kitchenette and large sleeping area. We had two doubles and a desk. Bathroom was very nice, only problem was that the door wouldn't shut all the way. They need to fix that....Room 223. We stayed two nights, and had no problem with A/C in our room. If in the area, we would definitely stay there again.More</t>
   </si>
   <si>
+    <t>reviewer1237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r208273237-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -992,6 +1100,9 @@
     <t>As soon as we got here we waited 20 minutes in the lobby for any staff to even show up to check us in. We finally got to our room and it was okay at first glance but extremely hot. My father and brother decided to go to the pool that was probably 60 degrees so they had to get out. We had a thermostat but as far as im concerned it does absolutely nothing. You can't go lower than 67 degrees and it does not feel like 67 it feels like 95. the bed sheets had discolored stains on them, leading me to wonder why they would put a stained sheet back on the bed anyways. The people above us ran around for a good 2 and a half hours stomping. The walls are so thin you can hear disturbing sounds coming from above and beside you. The wifi was so crappy that it worked probably an eigth of the time and when it did it took 5 minutes to load any webpage. Forget trying to watch youtube or netflix it wont ever load fast enough for that. My family and I always stay at Marriots and this is the absolute worse one ive ever been to. This hotel needs some work. Do your self a favor the Motel6 or Super 8 is probably nicer than here.More</t>
   </si>
   <si>
+    <t>caleb05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r207586911-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1121,9 @@
     <t>Very hard to find and even harder to find hotel front door! No place to park to check in! There are two parking spaces reserved for check in process, 10 min parking. I stayed 4 nights and there was the SAME motorcycle parked in one of  them for 3 of those nights. It was parked there 24/7 !!  I am handicapped and had to park in the far rear of the lot an walk all the way across! With broken leg and accessible plates but still nowhere available! Cars parked in designated accessible parking spots that did not have handicap plates nor hangers! But back to the motorcycle. On the 4th day I complained to front desk and was told "yes I know it's frustrating but the hotel manager won't do anything about it! And the owner of the motorcycle also has a car here and he uses that so the cycle never moves." Really!!!!?????? GM has no business being a GM. Several issues also but the above was the icing on the cake. Only thing great about the hotel were the housekeepers.More</t>
   </si>
   <si>
+    <t>Anuj V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r204134918-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1145,9 @@
     <t>The hotel is newly built and located opposite a major mall. The positives first - spacious rooms, clean and pet friendly, decent breakfast, free parking and indoor pool. The cons - the walls are paper thin and sound in the hallway intrudes specially as the hotel seems popular with school and activtity groups . Being close to the highway is great and the location is midway between downtown dallas and fort worth. Friendly staff and superb value in the crowded motel type market.More</t>
   </si>
   <si>
+    <t>Steven P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r198118859-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1166,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Lesley L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r197787371-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1185,9 @@
   </si>
   <si>
     <t>It is an OK hotel.  Great staff.  Lobby is nice.  Rooms are average.  Seem clean enough.  Nauseating smell in the hallways and elevator.  The room itself smelled fine.The bed was fine - sheets clean and crisp.  The bathroom is small - not much of a vanity.  Towels were old and some had stains.  Otherwise clean.  (Other than the hair on the toilet seat).  The carpet appeared OK, but I chose to wear slippers.  Laminate flooring in the 'kitchen' was lifting up near the appliances.  Fridgetop was dusty.  It is a shorter full size fridge and the top is just below eye level.  There was what appeared to be a homeless guy wandering the parking lot checking out a new corvette.  Not the best neighborhood in general.More</t>
+  </si>
+  <si>
+    <t>JWalker1000</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r189533187-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
@@ -1098,6 +1221,9 @@
 From now on when we go see games in Dallas, I will be picking this location as my regular...I stayed at this location last night - and it was my first time staying at this particular chain owned by Marriott. I was super impressed.My 6 year old and I went to watch a hockey game in Dallas last night, and we picked this location to spend the night. When we check in prior to the game, I found that the room was very, very clean and nicely decorated. I also was unaware of how many extras it had - dishwasher, microwave, fridge with freezer, and a 2 burner electric stove. Plus, silverware and dishes. All that was a very big surprise, and very convenient. This morning, we ate the complementary breakfast before we made the 3 hour drive back home. The employee in charge of that area was extremely helpful. She even made my son a waffle as I got some other items for him (it's hard to keep up with a 6 year old that is FULL of energy). And, she made the effort to point out where everything was, and even talked with me about the hockey game for a moment.I should point out that there is a Wal-Mart very, very close, as well as a Target (in case you need anything). And, many food places to eat nearby, including my favorite - a Cheddars. From now on when we go see games in Dallas, I will be picking this location as my regular place to stay!More</t>
   </si>
   <si>
+    <t>Des_513</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r185730589-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1251,9 @@
     <t>A few weeks ago I stayed at the TownPlace Suites in DeSoto and I can honestly say that I had a great experience there. Everything from the front desk to the management was great. The hotel was also spotless. The General Manager, Lynette Hooper, was very polite and made sure that my stay was up to par. Novi, Darrius, and Miss Joyce all had great customer service and greeted me each and every time I walked through the doors. I had a question about where the local Walmart was and they had no problem printing out directions for me. I loved my stay at this hotel and I will be making another reservation as well as recommendations to friends and family. Great Job Lynette Hooper and the staff at the TownPlace Suites, keep up the good work!!More</t>
   </si>
   <si>
+    <t>2bluestarmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r183099032-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1281,9 @@
     <t>This Hotel is CLEAN! I could smell clean everywhere I walked and most important, the room. Staff can always be found cleaning, until early evening. The food is typical for a Marriot as far as breakfast goes. Star Staff: Lynette Hooper, General Manager was a shining star! Rozalind, Novi, Darius, Natasha all shine which with a Super GM, indicates to me, excellent training and example. Considering we are next to the highway, quiet and slept very well for 3 nights.More</t>
   </si>
   <si>
+    <t>Jeff P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r175558157-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1302,9 @@
     <t>My first time in Texas and the service was great. The locations address is new and not recognized by GpS and when I called the people at the counter were a giant help. They also gave me free popcorn and told me about a root beer social the next night. Very welcoming. More</t>
   </si>
   <si>
+    <t>Katie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r157653927-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1332,9 @@
     <t>On Tuesday April 9,2013, while staying at the TownePlace Suites in Desoto TX,  I had a life altering event that will forever change me and more than likely the front desk clerk as well. At approximately 10:10 pm, I was sitting at the computer in the lobby printing my boarding pass for my flight back home to Minnesota the next day. I was just about to log off the computer when I felt someone standing very close behind me. As I started to turn around to see if they needed the computer, I was told not to turn around and was asked where my money was. i replyed that I didn't have any money with me and felt something stick into my side. When I looked down, I saw a  black pistol in my side and I knew at that moment this was really bad.Although I kept my head down and sat very still, I could see the front desk very clearly from where I was sitting out of the corner of my eye. I saw the 2nd assailant, an african american male with his arm held straight out at the front desk clerk pointing a gun directly at her.I told the man I again that I had no money and begged him not to shoot me. He told me I was lying and asked again where my money was. I again begged him, 'please don't shoot, I have no...On Tuesday April 9,2013, while staying at the TownePlace Suites in Desoto TX,  I had a life altering event that will forever change me and more than likely the front desk clerk as well. At approximately 10:10 pm, I was sitting at the computer in the lobby printing my boarding pass for my flight back home to Minnesota the next day. I was just about to log off the computer when I felt someone standing very close behind me. As I started to turn around to see if they needed the computer, I was told not to turn around and was asked where my money was. i replyed that I didn't have any money with me and felt something stick into my side. When I looked down, I saw a  black pistol in my side and I knew at that moment this was really bad.Although I kept my head down and sat very still, I could see the front desk very clearly from where I was sitting out of the corner of my eye. I saw the 2nd assailant, an african american male with his arm held straight out at the front desk clerk pointing a gun directly at her.I told the man I again that I had no money and begged him not to shoot me. He told me I was lying and asked again where my money was. I again begged him, 'please don't shoot, I have no money anywhere on or around me. I then offered up my cell phone--the only thing I had brought out to the lobby with me of any value. He took my cell phone all the while keeping the gun in my side. Meanwhile the front desk clerk remained calm and took the entire drawer of money out of the till and told him to take whatever he wanted. He then grabbed the money and the two of them took off out the front doors of the hotel. The whole event probably lasted about 2 minutes but felt like an eternity. Had it not been for the calm demeanor of the front desk clerk and the grace of God, I would probably not be sitting here today. Do i think i was in the wrong place at the wrong time?Yes. Do I think this could have been prevented? Maybe, but I am not sure I'll ever know. While being interviewed by police, I found out that the Security guard was late for his shift.  I only found this out because the Hotel Manager stormed in the back room irate that he was nowhere to be found and the front desk clerk sitting next to me confirmed he had not shown up prior to the armed robbery. She also confirmed that the "angry lady" was the hotel Manager.  I do not know what took place with the security guard, nor do I know any other details of the incident because after my interview the police because I went directly back to my room, alone and a complete mess.  I  never heard another word from the Manager or from anyone at the hotel...even at the point of checkout the next morning. I was asked upon checkout how my stay was. I replied "not good."  When asked why, my reply was that I was one of the people held at gun point last night in their lobby so up until that point I guess it was an okay stay. The front desk clerk said she was very sorry and that it never should have happened. I then asked for a copy of my receipt and she handed it to me. As I was about to leave, there was one woman who came out of the back that I had seen upon my arrival to the hotel and also during the interview with police and she did gave me a hug. It was not the hotel Manager I had seen the night before.  I was grateful for the kindness of the woman who hugged me, but truly I just wanted to get out of that place. I was traumatized and alone and just wanted to get home. My questions are this--what has happened to CUSTOMER SERVICE and just plain humanity in some people? How does a Manager of a hotel not make it a point to seek out the victim of a crime that happened in her establishment?  A simple wellness check, phone call, or even a free nights stay would have sufficed at that point, but she did NOTHING. I was charged for all three nights and not once acknowledged by her--even during the police interview.  It was like I was just another guest who had just had a pleasant stay. Am I angry at the hotel staff? Absolutely not. They were as kind and accommodating as any staff could be. My disbelief and anger comes in at the two thugs who robbed the hotel at gun-point and the Hotel Manager who did NOTHING.   Perhaps she should watch the survelience video a couple more times to see the trauma that unfolded, but my guess is that it wouldn't have made a difference. 4 days has passed and I have heard nothing.  Signed-- Disgusted guest/Desoto police Dept case # 13-1824.More</t>
   </si>
   <si>
+    <t>Kcsparky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r156919138-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1356,9 @@
     <t>Staff was very accommodating and did a great job solving issues started by Expedia booking errors.  My room was very clean and comfortable.  Only down side was building maintenance by the hotel management company.  A city water outage caused the washers to become nonoperational.  Their "maintenance man" called in sick so laundry facilities were nonexistent for nearly 48 hours. Not good with a nearly full hotel and no nearby laundromat.  Being a "Marriott" affiliate, a repair company should have been called in to do the simple task of resetting the washers.  A dryer was also down for my entire stay of 3 weeks.  Other than this hiccup, it was an enjoyable stay and I would stay there again.More</t>
   </si>
   <si>
+    <t>rrob67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r156235345-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1374,9 @@
     <t>Staff couldn't be more hospitable. Breakfast is excellent. Easy access to I85. Many good restaurants right around the corner. Will soon be putting Keurig coffee and coffee makers in each room. We stay in many TownPlace Suites across the country, and this is one of the best.</t>
   </si>
   <si>
+    <t>Elizabeth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r147879541-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1396,9 @@
   </si>
   <si>
     <t>The best suites hotel I have seen. The kitchen area is quite impressive--very helpful as we were traveling with a baby and accompanying bottles, etc. We enjoyed the complimentary breakfast very much. My only complaint had to do with the maid service. Apparently we stayed on a very busy weekend, and after being gone all day long, we returned at 3pm to find our room wasn't clean. We needed to dress and prepare for a special evening event, but the maid said that our room wouldn't be cleaned if we didn't leave the room right then. I was frustrated that the room had been unoccupied for 6 hours and not cleaned. I did speak to the front desk and calmly insisted that this was their problem and not mine, and I expected our room to be cleaned after we left for the evening. The room was ultimately cleaned, but I felt frustrated by having to insist on service we had paid for.More</t>
+  </si>
+  <si>
+    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r146404884-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
@@ -1289,6 +1436,9 @@
 On the negative side, we noticed the physical property, while bright and clean, suffered from minor repair issues. We also observed a fairly high amount of guest noise, including "floor noise" from the room above ours. One resident literally hit the floor at 11:00 p.m. and continued moving around until 7:00 a.m., when the footfalls and stomping ceased....Positives: helpful staff, pleasing to the eyes, clean roomsNegatives: repair and functional issues, intermittent guest noiseWe stayed at this location twice within a month, once in October, 2012, and most recently in November. Generally speaking, our visits were pleasant, due in large part to the professionalism and courtesy of the staff. When problems occurred, they were quick to respond with decisive and effective action.The following narrative outlines both experiences. I apologize in advance for the length, but believe it necessary to reveal what other guests might encounter and to show how the staff solved problems.OCTOBER, 2012 -Our first visit occurred during a fall vacation. We stayed six nights. During that time we developed a good idea of this hotel's strengths and weaknesses.  We quickly realized the staff is this hotel's strongest attribute. Employees were pleasant, knowledgeable, and eager to assist. Front desk personnel filled all our requests, housekeeping was efficient...even attendants at the breakfast nook were pleasant. A lot of businesses say their "people are their greatest resource". This is a fact at the Desoto TownePlace Suites.On the negative side, we noticed the physical property, while bright and clean, suffered from minor repair issues. We also observed a fairly high amount of guest noise, including "floor noise" from the room above ours. One resident literally hit the floor at 11:00 p.m. and continued moving around until 7:00 a.m., when the footfalls and stomping ceased. The sound wasn't so loud that it prevented sleep, but it did interrupt our rest by waking us intermittently throughout the early morning hours.Interestingly, our room was next to the elevator. It never bothered us!Apparently others heard noise and took action. During breakfast one morning we overheard a guest explain they eventually called the front desk.Generally, the property was clean, but we did find frothy beige glop on ice from the first-floor ice maker. My wife works in food service and is very aware of issues ice dispensers can cause. We discarded that batch, made ice in trays (provided in the the room refrigerator), and bought a bag of ice from a convenience store the next day. We haven't gotten ice from that machine since.Our king suite packed a lot of functionality into a small space: bed, side tables, sofa with ottoman, built-in desk, and kitchette. The bathroom is comfortably-sized but has almost no counter space for toiletries. An amply-sized closet adjoins the bath, but it lacked a luggage stand. We moved the ottoman into the closet to hold our bags.We found room furnishings comfortable. Lights and appliances worked perfectly, and the television had a good selection of channels. The kitchen utensils were more than adequate for our week-long stay.I loved their baggage carts; they are compact but functional and are much easier to guide than a traditional hotel cart.Ongoing maintenance can be seen, but so can unrepaired wear and tear. We saw evidence of refurbishing in our room but the hall carpet was frayed. Flushing our toilet was a gamble. Most of the time it hesitated then "gulped" the contents, but about 25% of the time it gurgled and hissed and failed to empty. One of the bars on our towel rack fell out but we were easily able to put it back into place.Once considered a luxury, breakfast is now all but expected at hotels. This property offers a small variety of cold cereals, microwave oatmeal, breads and pastries, and waffles. Two fruits were offered: apples and bananas. One "hot breakfast option" is available each day. During this visit we saw (1) scrambled eggs with biscuits and gravy (twice), (2) biscuits and plain gravy, (3) biscuits and gravy containing sausage chunks, (4) scrambled eggs with sausage patties, and (5) scrambled eggs with corned beef hash. The eggs always contained chives.Drink options include the usual array of milks, juices, coffees, and teas.Overall, our first stay was a great success. we had a very good time and were glad to have found such a nice hotel close to the people we see and things we do in Dallas...so much so that we returned a few weeks later for a one-night visit. NOVEMBER, 2012...Experiences of our first visit were magnified during our second. We experienced "higher highs" and "lower lows". One situation, had it not been quickly resolved, would have have resulted in cancellation and a move to another hotel. To their credit, staff members were quick to provide a solution.Check-in took much longer this visit. Several large groups arrived shortly before us. Some were affiliated with youth sports; others had attended a funeral, and yet another group appeared to have come for some sort of social event...perhaps a family reunion or large birthday party. I say this because balloons were taped outside of a room on the third floor. I was seventh in line to check-in, and continually had to dodge loiterers in the lobby, maintenance staffers trying to navigate the crowd, and a group of caterers delivering food. The entire checkin process took about fifteen minutes.Our reservation was for two rooms to accommodate four people. The desk clerk quickly processed payment and provided keys to one room on the second floor and another on the third, both in the west wing. We immediately went to examine facilities prior to settling in.The temperature inside our second-floor room was very comfortable, but the third-floor room was warm and stuffy, even though the thermostat was set at 67 degrees Fahrenheit. We tried unsuccessfully to adjust the thermostat downward. It remained at 67. We then turned the fan to "high" but the room became warmer. To make sure the air conditioner really was broken we stayed in the room about 10 minutes then returned to the front desk for assistance. During that time I noticed cracks and buckled wallboard tape in both external corners of the room. I thought it strange that walls in this room, including the buckled tape, appeared to have been recently painted. Other details such as laminate flooring that stopped an inch short of the door jamb made the room feel as if it had been maintained by amateurs (like me!) While waiting we also noticed a lot of noise from surrounding rooms, and wondered aloud if guests would be quieter during the evening. (More about this in a moment...)After it became apparent the room would not cool, I returned to the front desk to wait in line again. The desk clerk, who'd obviously had a rough day, apologized profusely and quickly provided keys to a room in the east wing of the second floor...far from the noise we'd heard in the west wing of the third floor. The temperature in our replacement room was excellent and the thermostat functioned perfectly. Furnishings and fixtures were in excellent condition. Everything, including the toilet, worked great! In retrospect, it was the best of the four rooms we've occupied at this hotel. We were delighted with the solution, as we were afraid with the crowds they wouldn't be able to provide a cool room. Crisis averted! A little guest noise could be heard in the hallway as groups of teens passed by, but that stopped by 11:00 p.m. The next morning we saw several families with children, tweens and teens emerge from nearby rooms. These people had been so quiet we didn't know those rooms were occupied!The other two members of our party weren't quite so fortunate. They reported intermittent noise through the evening and into the morning hours. Both are heavy sleepers, but were awakened about 2:30 a.m. with "surround sound" clamor in the hallway and from the floor above. They reported the situation to the front desk, awaited a half-hour, then called again when the party continued. It subsided about 3:00 a.m....they weren't sure why...but assume the staff intervened. (We appreciate and respect employees who are forced to deal with situations like this!)Breakfast was similar to our first stay. The hot meal consisted of biscuits and sausage patties...no eggs or gravy. Interestingly, neither time were plain oatmeal packets available...only flavors such as Apple-Cinnamon and Maple. I'd have eaten plain oatmeal some days had it been available.SUMMARY...In our opinion, the Desoto TownePlace Suites is a two-star hotel with a five star staff. It provides a comfortable level of amenities for a reasonable price. The facility is attractive...I loved photographing the property...but minor maintenance flaws and amenities keep it from being as exceptional as other Marriott properties we've visited. Most things we noticed are nuisances. The only critical problem we noted was the beige glop in the ice the first night.The staff, however, compensates for these small deficiencies. They make the most of what they have to work with. Customers are valued and made to feel at home here. We appreciate their efforts. We've already returned once, and will again. Final note: this hotel is visible from the highway but getting to it can be tricky. The building sits away from the frontage road and it's easy to overlook the primary turnoff. Fortunately, many surrounding parking lots are interconnected. It's easy to navigate through them if you miss the first entrance. Once you've mastered entry, you'll have no problem returning.More</t>
   </si>
   <si>
+    <t>StarStruck50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r144376596-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1460,9 @@
     <t>My Mom, husband, and I booked our stay at Townplace Suites Dallas Desoto.  My Mom stayed in room 209 while my husband and I stayed in another room.  Little did we know that the first two floors are "pet friendly."  I went into her room to drop off her luggage and was in there a total of five minutes.  Later on the next day, I found a flea crawling on my newborn baby's head.  I thought it may have jumped on one of us when we walked in the elevator, etc.  My ankles and feet started itching like crazy.  I immediately called my Mom, and when she pulled back the sheets on the bed next to her (there were two beds), hundreds of fleas were clearly visible and jumping around.  While the hotel immediately relocated her to another room that night, we heard excuse after excuse on how the previous person using the room must have "snuck their pet in."  It was clear to me for a flea infestation that bad, housekeeping and management clearly did not do their due diligence in inspecting the cleanliness of the room afterwards regardless of someone bringing in a pet.  My Mother was covered in flea bites, I had numerous bites from the five minutes I was in the room, and we had to try to separate and sanitize everything before leaving the hotel (I cut our stay short of course and hotels.com refunded...My Mom, husband, and I booked our stay at Townplace Suites Dallas Desoto.  My Mom stayed in room 209 while my husband and I stayed in another room.  Little did we know that the first two floors are "pet friendly."  I went into her room to drop off her luggage and was in there a total of five minutes.  Later on the next day, I found a flea crawling on my newborn baby's head.  I thought it may have jumped on one of us when we walked in the elevator, etc.  My ankles and feet started itching like crazy.  I immediately called my Mom, and when she pulled back the sheets on the bed next to her (there were two beds), hundreds of fleas were clearly visible and jumping around.  While the hotel immediately relocated her to another room that night, we heard excuse after excuse on how the previous person using the room must have "snuck their pet in."  It was clear to me for a flea infestation that bad, housekeeping and management clearly did not do their due diligence in inspecting the cleanliness of the room afterwards regardless of someone bringing in a pet.  My Mother was covered in flea bites, I had numerous bites from the five minutes I was in the room, and we had to try to separate and sanitize everything before leaving the hotel (I cut our stay short of course and hotels.com refunded the extra days I had booked).  The manager of the hotel first offered to give us additional nights free on our next stay, but I told him that after this experience, I wasn't interested in returning.  He then offered to reimburse us for the one night my Mom spent in the room, but I strongly felt after the number of bites and disgusting conditions, that he should refund the entire two night amount even though we left early.  He argued with me about being "reasonable" until I communicated to him that I expected him to pay for extermination services in my home for the fleas I may have carried with me as well as the suffering we endured due to the filthy condition of his hotel (which I felt was reasonable).  Fleas also carry all sorts of diseases such as bubonic plague bacteria (yes, it still exists).  It was only then that he refunded the two nights.  Needless to say, I'll never go there again and would strongly caution anyone considering this hotel.More</t>
   </si>
   <si>
+    <t>pelicanpoint</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r141315545-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1481,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Pit2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r134065468-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1499,9 @@
     <t xml:space="preserve">Rooms are nice has a nice kitchen area and appliances. Bed is adequate not great. Tv channel selection not horrible but not the best. Wifi is POOR has a weak signal and slow speeds especially at peak times. Only true complaints I have about the rooms are that the A/C does not go below 67 and that the sound insulation is AWFUL. I hear every step of the person above me as well as every conversation in the hallway. </t>
   </si>
   <si>
+    <t>marriottgoldmember12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r133355358-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1364,6 +1523,9 @@
     <t>I was really excited about this property since its new. The pool area is fun, the front desk staff and breakfast was great. However housekeeping was rude.They treat their guest as if everyone is going to steal. To get a extra towel the housekeeping must take inventory of your current towels. Even if you request extra towels in your reservation. Housekeeping made me bring her my dirty towels and she threw them on the floor and counted them in front of me. Dont request a late check out becasue again housekeeping will constanly bang on your door to say you must pay to extend your stay even if you requested a late check out. I complained to the front desk, emailed the manager but I had to call on Tuesday to get a reservation. This is a good palce to stay if you bring your own towels and dont request a late check out.More</t>
   </si>
   <si>
+    <t>Katherine A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r129921977-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1542,9 @@
   </si>
   <si>
     <t>March 2012</t>
+  </si>
+  <si>
+    <t>Duncan Z</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r129817422-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
@@ -1408,6 +1573,9 @@
 I stayed for 3 nights, and on one evening I came in and the gentleman who was working the desk said good afternoon and asked how my day had been going, I was astounded for I had never been asked that before. I asked him to refer some restaurants...O a recent unexpected trip to Dallas, I found myself with not a reservation to a hotel and a young lady at Methodist Hospital referred me to Towne Place Suites in DeSoto, Texas. Upon entering the lobby, I was taken by surprise that the housekeeping lady greeted me with a great smile and a chipper good morning. Something unheard of with a housekeeping crew in any hotel. Another plus was the freshness of the lobby, clean fresh crisp fragrance, not a must lysol smell, biig huge plus.As I proceeded to the front desk, I was greeted with an even bigger infectious smile by a young lady named Natasha, who by the name tag was the front desk supervisor. Effecient, informative and extremely helpful. Every front desk associate at any hotel should be as giving as she was.As I entered my room I was taken aback by the enormity of our room, spacious and comfortable, plenty of towels and the kitchen, goodness gracious I didn't have to ask for a thing while staying here, good concept, good planning and fresh smelling, housekeeping team rocks this hotel to the Nth degree.I stayed for 3 nights, and on one evening I came in and the gentleman who was working the desk said good afternoon and asked how my day had been going, I was astounded for I had never been asked that before. I asked him to refer some restaurants close by or some that delivered, and graciously referred me to Romas and the Greek Salad. I remember his name as Richard and was so glad the salad was referred to me that I ordered 2 more the following days there, thanks Richard.I was trying not to have a reason for complaining, minor as it may be, a complaint is a complaint nonetheless. As I went to have my seat at breakfast, the breakfast attendant said good morning in a rehearsed tone made it seem like she was a greeter for Walmart. As I came to the desk to checkout by Natasha, this woman seemed like her knowledge of the front desk were questions on Jeopardy, answering my questions as if I had asked her, poor woman, she seems like she lacks attention.My departure was pleasing and inviting, making me want to stay here again, gracious hospitality and impecible service. I was told that Scott was the GM, Mr. Scott, you have an awesome professional team at this awesome TPS!!Keep it up!More</t>
   </si>
   <si>
+    <t>Kelli T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r129713825-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1594,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>DrKRBolton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r125294258-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1441,6 +1612,9 @@
     <t>Had to stay in a suite here for a substantial amount of time. Never being in a chatostrophic situation like this we did not know what to expect. We lived here for two months a family of four, inlcudes teenagers, they even enjoyed the stay. It may us aware of the qualities the hotel offers and definitely made it a choice hotel to tell family and friends about.</t>
   </si>
   <si>
+    <t>bostona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r122781586-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +1633,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Susie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r122630068-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1474,6 +1651,9 @@
     <t>I can't say enough good things about this hotel.  We were there for a little over two weeks. Rooms are nice and comfortable, the breakfast was both plentiful and delicous, and having the full kitchen was delightful.  But one of the very best things about the hotel was the personable and very helpful staff. It was our first time in Texas, and they made us feel very welcome.</t>
   </si>
   <si>
+    <t>KamikazeGardener</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r120179724-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +1675,9 @@
     <t>We thought we won the lottery when we got a double queen room, but when we walked in, our jaws dropped. A kitchen with a full sized fridge, micro, sink, dishes, etc...the works!It was a shame we only got to stay 2 nights.  The senior discount made it affordable with ID, and the breakfast was VERY nice:  They had an employee dedicated to cleaning and restocking the breakfast area, not just a front desk clerk.  The staff was extremely welcoming and helpful the entire weekend.  They even found an employee to help us load our luggage in  the car when all the baggage racks were in use. THAT'S above and beyond customer service with a smile!More</t>
   </si>
   <si>
+    <t>KAGood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r120109742-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1510,6 +1693,9 @@
     <t>I was very impressed. It was my first time in TX for my brother's wedding and this is the hotel our friends and family stayed at. The hotel has a modern and new feeling. The rooms are comfortable, welcoming, and with all the kitchen amenities.  The staff exceeded expectations, going out of their way to make special accommodations for the wedding party.  They also knew the area well (often given directions) and gave great restaurant recommendations.  I would recommend this hotel for business travelers and families alike- it has it all!</t>
   </si>
   <si>
+    <t>xj6jj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r119846805-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1525,6 +1711,9 @@
     <t>Excellent hotel for the price.  Full kitchen, spacious room, clean, VERY comfortable.  Parking lot looked full, but did not hear any noise from other guests in my room.  Breakfast was satisfactory.  Good location.  Noticed on guest directory $100 charge for pets.  Not sure if this is a common practice in hotels, but I was a little surprised it's a flat rate and not a deposit of some kind to bring a pet.</t>
   </si>
   <si>
+    <t>travellove59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r118902323-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1543,6 +1732,9 @@
     <t>We stayed here for the weekend to visit the State Fair of Texas.  Our room was a king studio suite.  Our friends had the two bedroom suite which was really nice.  It was so nice to have a refrigerator, microwave, stove and all the other amenities.  The kitchen was fully equipped even had a toaster!  The room was very clean and the a/c worked great.  The beds were comfortable and the linins were nice.  The bathroom is pretty small but the closet was huge, which was nice to store all our stuff in.  There was a young gentleman working the front desk most of our stay and he was very helpful and so nice to us every time we had a question or was just walking by.  The continental breakfast was good too.  They had Texas shaped waffles and the other usual stuff.  We would stay again and can’t wait to go back to the state fair!More</t>
   </si>
   <si>
+    <t>nvky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r118548389-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1561,6 +1753,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>ross31907</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r117049512-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1579,6 +1774,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>timetostay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r109402816-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1606,6 +1804,9 @@
     <t>King bed room had lots of space and a comfy bed with plenty of pillows.  The full kitchen is a bonus and was very clean.  Room looks quite new with a large flat-screen TV.  Very friendly staff at both checkin and checkout time.  Only slightly disappointing thing was breakfast - mostly carbs (cereal, waffles, bagels, muffins and the like).  The only fresh fruit available was apples.  They did have Texas-shaped make-it-yourself waffles though if you're into novelty.  All in all a great stay (and at a great price too).More</t>
   </si>
   <si>
+    <t>HRMWORK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r108646221-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1624,6 +1825,9 @@
     <t>Everyone at the Townplace Suites Marriott were wonderful. They went above and beyond to make not only my stay but our entire groups stay outstanding during our Conference.  My special thanks to: Scott, Natasha and Joyce.  I remember these names, but they are not the only ones who made an impression on me.  Thank you again, and if I am ever in the area for personal time I will make sure I stay with you.More</t>
   </si>
   <si>
+    <t>mktrask</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r108621002-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1636,6 +1840,9 @@
     <t>The rooms were comfortable but were no frills. The staff was outstanding! I would have to say it was some of the best customer service I have ever received.</t>
   </si>
   <si>
+    <t>rrrgad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101478127-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1654,6 +1861,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>godsson1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101461948-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1672,6 +1882,9 @@
     <t>We are staying at the TownePlace Suites Marriott Dallas/Desoto Texas. We are very, very pleased with the service that we have received. This hotel has everything you need from the perfect room to the tasty breakfast in the morning. It's not too many hotels that you can go to and feel  at home. The rooms are very nice and spacious. Some rooms are a two bedroom like an apartment with kitchen, and all the amenities . The Staff is very helpful and friendly at all times. Anything you need that the hotel can provide they will make it their business to get it done. I highly recommend this hotel to anyone weather it's just over night, the weekend or extended stay. This hotel is the perfect space for you and your love one's. It is surely a place that you could call home.More</t>
   </si>
   <si>
+    <t>Crudupvb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101434487-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1687,6 +1900,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>wendyws77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r101298154-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -1706,6 +1922,9 @@
   </si>
   <si>
     <t>We reserved the banquet room for my daughters Sweet 16 party. From the moment we arrived the hotel staff was very attentive and accommodating. The room was large enough for us to have a DJ, party lighting, several large tables for seating, a buffet and beverage serving area, and gift table. There was plenty of parking for guests and with the location of the banquet room we did not have an issue with uninvited guests. The property was very modern and clean. The hotel rooms are spacious and the perfect space for a family; kitchenette, large TV, comfortable beds, a nice sized closet for our luggage and clothes, and a full size refrigerator. The complimentary breakfast was full of variety and there was something to please everyone. This property is perfect for business meetings or leisurely parties and is located very close to many, many things Dallas has to offer. The hotel is pet friendly so we were also able to have our dog with us. We will definitely stay again and again.More</t>
+  </si>
+  <si>
+    <t>crusadercc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d1526339-r85061642-TownePlace_Suites_Dallas_DeSoto-DeSoto_Texas.html</t>
@@ -2231,43 +2450,47 @@
       <c r="A2" t="n">
         <v>59704</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>180106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2283,56 +2506,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59704</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>17726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2350,56 +2577,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59704</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>13163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2411,56 +2642,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59704</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>180107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2472,56 +2707,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59704</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>180108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2533,56 +2772,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59704</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>180109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2598,56 +2841,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59704</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>180110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2665,56 +2912,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59704</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>180111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="K9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2732,56 +2983,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
         <v>110</v>
       </c>
-      <c r="X9" t="s">
-        <v>103</v>
-      </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59704</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2799,56 +3054,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
         <v>110</v>
       </c>
-      <c r="X10" t="s">
-        <v>103</v>
-      </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59704</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>180113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2866,56 +3125,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59704</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>13163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2927,56 +3190,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59704</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>180114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2992,56 +3259,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
         <v>110</v>
       </c>
-      <c r="X13" t="s">
-        <v>103</v>
-      </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59704</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>6262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3053,56 +3324,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59704</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>180115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3114,56 +3389,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59704</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>180116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3179,47 +3458,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59704</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>180117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -3236,56 +3519,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59704</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>28720</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3301,56 +3588,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59704</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>180118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3368,56 +3659,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59704</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3433,56 +3728,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59704</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>180119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3500,56 +3799,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59704</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>180120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3561,56 +3864,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X22" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59704</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>29586</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3622,56 +3929,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X23" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59704</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>180121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3687,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X24" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59704</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>180122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3748,56 +4063,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X25" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59704</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>37545</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3815,56 +4134,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X26" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59704</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>311</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3882,56 +4205,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X27" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59704</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>29569</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3949,47 +4276,51 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X28" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59704</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>180123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -4006,56 +4337,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59704</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>180124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4073,47 +4408,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59704</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>180125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -4130,56 +4469,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59704</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>180126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4195,47 +4538,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59704</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>180127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>310</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -4262,56 +4609,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59704</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>68445</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4323,56 +4674,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X34" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59704</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>28576</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4388,56 +4743,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X35" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59704</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>17387</v>
+      </c>
+      <c r="C36" t="s">
+        <v>333</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4455,56 +4814,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X36" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59704</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>180128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>340</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4522,56 +4885,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X37" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59704</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>180129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>348</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4583,47 +4950,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X38" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y38" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59704</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>180130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>356</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K39" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L39" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -4652,50 +5023,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59704</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>81462</v>
+      </c>
+      <c r="C40" t="s">
+        <v>363</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J40" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4717,56 +5092,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X40" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y40" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59704</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>83458</v>
+      </c>
+      <c r="C41" t="s">
+        <v>371</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4790,50 +5169,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59704</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>8257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>378</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4857,50 +5240,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59704</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>180131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4924,50 +5311,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59704</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>180132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4989,56 +5380,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="X44" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="Y44" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59704</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>35150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>403</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="J45" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="K45" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5060,47 +5455,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="X45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="Y45" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59704</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>14903</v>
+      </c>
+      <c r="C46" t="s">
+        <v>413</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -5127,56 +5526,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="X46" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="Y46" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59704</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>31624</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="K47" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="O47" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5198,56 +5601,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="X47" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="Y47" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59704</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>180133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5271,50 +5678,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59704</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>180134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="J49" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5338,50 +5749,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59704</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>33648</v>
+      </c>
+      <c r="C50" t="s">
+        <v>444</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="J50" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="K50" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5405,50 +5820,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59704</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>180135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>452</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="J51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="K51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5472,50 +5891,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59704</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>180136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>460</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="J52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="K52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="L52" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5539,50 +5962,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59704</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>180137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>468</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O53" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5606,41 +6033,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59704</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>180138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>475</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -5669,50 +6100,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59704</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>69578</v>
+      </c>
+      <c r="C55" t="s">
+        <v>481</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="J55" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="K55" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="L55" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5736,50 +6171,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59704</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>180139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>489</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="J56" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="K56" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="L56" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="O56" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5803,50 +6242,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59704</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>180140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>496</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="J57" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="K57" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5870,50 +6313,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59704</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>180141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>503</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="J58" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="K58" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5937,50 +6384,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59704</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>180142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>510</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="L59" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6004,50 +6455,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59704</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>42363</v>
+      </c>
+      <c r="C60" t="s">
+        <v>516</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="J60" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="K60" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="L60" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="O60" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6071,50 +6526,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59704</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>59344</v>
+      </c>
+      <c r="C61" t="s">
+        <v>523</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="J61" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="K61" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6138,50 +6597,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59704</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>180143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>529</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="J62" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="K62" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="L62" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6205,50 +6668,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59704</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>180144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>537</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="J63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="K63" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="L63" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="O63" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6272,50 +6739,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59704</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>180145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>543</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="J64" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="K64" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="L64" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="O64" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6339,50 +6810,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59704</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>180146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>549</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="J65" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="K65" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="L65" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6406,50 +6881,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59704</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>180147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>556</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="J66" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="L66" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="O66" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6473,50 +6952,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59704</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>180148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>563</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="J67" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="K67" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="L67" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6536,50 +7019,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59704</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>180149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>570</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="J68" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="K68" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="L68" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="O68" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6601,47 +7088,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="X68" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="Y68" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59704</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>180150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>580</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="J69" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="K69" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="L69" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -6658,56 +7149,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="X69" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="Y69" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59704</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>180151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>587</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="J70" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="K70" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="L70" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="O70" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6731,50 +7226,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59704</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>180152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>592</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="J71" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="K71" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="L71" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="O71" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6798,41 +7297,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59704</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>180153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>599</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="J72" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="K72" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="L72" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -6851,50 +7354,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59704</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>180154</v>
+      </c>
+      <c r="C73" t="s">
+        <v>606</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="J73" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="K73" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="L73" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="O73" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -6918,50 +7425,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59704</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>180155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>612</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="J74" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="K74" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="L74" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6985,50 +7496,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59704</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>180156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>620</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="J75" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="K75" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="L75" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="O75" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7052,7 +7567,7 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
